--- a/40_数据库/学习笔记_数据库.xlsx
+++ b/40_数据库/学习笔记_数据库.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FC2E2E-2245-4112-B44C-19DDFB75F8F2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="850" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="850" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="11" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <sheet name="NoSQL" sheetId="8" r:id="rId5"/>
     <sheet name="总结" sheetId="9" r:id="rId6"/>
     <sheet name="对比" sheetId="2" r:id="rId7"/>
-    <sheet name="导入模板" sheetId="3" r:id="rId8"/>
+    <sheet name="事务" sheetId="3" r:id="rId8"/>
     <sheet name="界面" sheetId="4" r:id="rId9"/>
     <sheet name="数据库设计" sheetId="7" r:id="rId10"/>
     <sheet name="参考" sheetId="10" r:id="rId11"/>
@@ -29,7 +28,7 @@
     <definedName name="适用场景" localSheetId="4">NoSQL!$B$71</definedName>
     <definedName name="挑战" localSheetId="4">NoSQL!$B$88</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcOnSave="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,162 +37,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-整型
-浮点型
-字符型
-二进制
-日期和时间</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-MSSql</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Oracle</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>MySql</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>PostgreSql</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">类型
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SqLite</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>类型</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="755">
   <si>
     <t>字段映射</t>
   </si>
@@ -630,237 +475,101 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一、表清单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、列清单</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
+    <t>char</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C# System data type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>tinyint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>大整型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小整型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>微整型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <r>
+      <t>binary</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>变更类型</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表编码</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表中文名称</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>表说明</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属表编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列中文名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>列长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小数位数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主外键</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主外键名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>char</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C# System data type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>转换后类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>查找类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮点型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>tinyint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>smallint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>double</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>smallint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大整型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小整型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>微整型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二进制</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <r>
-      <t>binary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t/>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1166,13 +875,6 @@
   <si>
     <t>U文本</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型的统一转换网格</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSSql</t>
   </si>
   <si>
     <t>图像</t>
@@ -2132,7 +1834,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2143,7 +1845,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2160,7 +1862,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2171,7 +1873,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2181,7 +1883,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2195,7 +1897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2206,7 +1908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2219,7 +1921,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2230,7 +1932,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2247,7 +1949,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2258,7 +1960,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2272,7 +1974,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2283,7 +1985,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2407,7 +2109,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2418,7 +2120,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2428,7 +2130,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2494,10 +2196,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>中整型</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2509,7 +2207,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2520,7 +2218,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2531,7 +2229,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2587,7 +2285,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2598,7 +2296,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2608,7 +2306,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2619,7 +2317,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2635,7 +2333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2646,7 +2344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2662,7 +2360,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2673,7 +2371,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2693,7 +2391,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2704,7 +2402,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2720,7 +2418,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2731,7 +2429,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2747,7 +2445,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2764,7 +2462,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2781,7 +2479,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2797,7 +2495,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2814,7 +2512,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2825,7 +2523,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2841,7 +2539,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2858,7 +2556,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2869,7 +2567,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2885,7 +2583,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2896,7 +2594,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2912,7 +2610,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2923,7 +2621,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2939,7 +2637,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2950,7 +2648,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2966,7 +2664,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -2977,7 +2675,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2993,7 +2691,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3004,7 +2702,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3021,115 +2719,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>目标数据库类型：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板数据库类型：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入或选择：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSSql</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>二、类型转换表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有无长度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>有无小数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>一、字段类型表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段类型分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属数据库类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>类型转换</t>
-    </r>
+    <t>DB-Engines 发布了 2016 年 12 月份的数据库排名。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>字段类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>源字段类型ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>目标字段类型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ID</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB-Engines 发布了 2016 年 12 月份的数据库排名。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3140,7 +2738,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3150,7 +2748,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3250,7 +2848,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3260,7 +2858,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3270,7 +2868,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3280,7 +2878,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3290,7 +2888,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3301,7 +2899,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3311,7 +2909,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -3389,7 +2987,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3400,7 +2998,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3608,7 +3206,7 @@
         <b/>
         <sz val="16"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3652,7 +3250,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3668,7 +3266,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3678,7 +3276,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4494,16 +4092,47 @@
   <si>
     <t>Oracle/MSSQL/Mysql　常用数据库的字段类型及大小</t>
   </si>
+  <si>
+    <t>MySQL 默认端口号为:3306</t>
+  </si>
+  <si>
+    <t>Oracle 默认端口号为:1521</t>
+  </si>
+  <si>
+    <r>
+      <t>SQL Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>默认端口号为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>:1433</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="49">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="46">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4530,7 +4159,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4551,7 +4180,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4559,7 +4188,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4567,7 +4196,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4581,7 +4210,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4630,34 +4259,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -4674,7 +4275,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4682,7 +4283,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4690,7 +4291,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4698,14 +4299,15 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4713,7 +4315,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4721,7 +4323,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4806,7 +4408,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4814,7 +4416,7 @@
       <b/>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -4844,6 +4446,13 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Microsoft yahei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5033,7 +4642,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5054,20 +4663,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -5087,23 +4688,94 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5123,25 +4795,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5153,10 +4807,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5186,68 +4840,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -5274,7 +4870,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B9309C70-6640-4649-B066-B100C302846F}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -5310,7 +4906,7 @@
         <xdr:cNvPr id="17" name="Group 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC6478B-DFBD-4D9D-BC5E-A1ED62C2D8D6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC6478B-DFBD-4D9D-BC5E-A1ED62C2D8D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5318,8 +4914,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="472440" y="42732960"/>
-          <a:ext cx="5372100" cy="14670405"/>
+          <a:off x="472440" y="41456610"/>
+          <a:ext cx="6057900" cy="15259050"/>
           <a:chOff x="601980" y="42511980"/>
           <a:chExt cx="5372100" cy="14670405"/>
         </a:xfrm>
@@ -5334,7 +4930,7 @@
           <xdr:cNvPr id="14" name="Group 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A082CC7E-870E-4CF2-A1EE-84E5313BE5B7}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A082CC7E-870E-4CF2-A1EE-84E5313BE5B7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5358,7 +4954,7 @@
             <xdr:cNvPr id="2" name="Picture 1" descr="这里写图片描述">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A117436-3DC4-427D-A848-97C03C882977}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A117436-3DC4-427D-A848-97C03C882977}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5404,7 +5000,7 @@
             <xdr:cNvPr id="3" name="Picture 2" descr="这里写图片描述">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A1413D-7488-472B-AEBB-CACBEC561C8C}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A1413D-7488-472B-AEBB-CACBEC561C8C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5451,7 +5047,7 @@
           <xdr:cNvPr id="4" name="Picture 3" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5B9C1E-75EE-4A6D-B8A2-284DB73162FA}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5B9C1E-75EE-4A6D-B8A2-284DB73162FA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5513,7 +5109,7 @@
         <xdr:cNvPr id="15" name="Group 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729F5B42-44B5-45EF-A995-9FC5092B3210}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729F5B42-44B5-45EF-A995-9FC5092B3210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5521,8 +5117,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6349365" y="42567225"/>
-          <a:ext cx="5334000" cy="12323445"/>
+          <a:off x="7035165" y="41279445"/>
+          <a:ext cx="6035040" cy="12774930"/>
           <a:chOff x="6539865" y="42201465"/>
           <a:chExt cx="5334000" cy="12323445"/>
         </a:xfrm>
@@ -5537,7 +5133,7 @@
           <xdr:cNvPr id="5" name="Picture 4" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954FCA6F-7D14-4B90-88E2-8B9821B78AD3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954FCA6F-7D14-4B90-88E2-8B9821B78AD3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5583,7 +5179,7 @@
           <xdr:cNvPr id="6" name="Picture 5" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579ADA8A-BACB-4E5A-A0AC-C0E965BE5690}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579ADA8A-BACB-4E5A-A0AC-C0E965BE5690}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5645,7 +5241,7 @@
         <xdr:cNvPr id="7" name="Picture 6" descr="这里写图片描述">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0C9653-464D-4F92-927F-BB58508FD188}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0C9653-464D-4F92-927F-BB58508FD188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5711,7 +5307,7 @@
         <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF31D928-B360-4352-AD49-1CBDF49A0E34}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF31D928-B360-4352-AD49-1CBDF49A0E34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5719,8 +5315,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1123950" y="89933145"/>
-          <a:ext cx="6917055" cy="8183880"/>
+          <a:off x="1200150" y="91076145"/>
+          <a:ext cx="7770495" cy="8124825"/>
           <a:chOff x="7120890" y="76179045"/>
           <a:chExt cx="6917055" cy="8214360"/>
         </a:xfrm>
@@ -5735,7 +5331,7 @@
           <xdr:cNvPr id="8" name="Picture 7" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D516FCBD-8BF4-46F7-9534-409BA559F323}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D516FCBD-8BF4-46F7-9534-409BA559F323}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5781,7 +5377,7 @@
           <xdr:cNvPr id="9" name="Picture 8" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25563059-0183-45EE-8F27-48B72C47EF91}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25563059-0183-45EE-8F27-48B72C47EF91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5843,7 +5439,7 @@
         <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C0A588-1381-47EA-ADC6-7E3D010B9651}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C0A588-1381-47EA-ADC6-7E3D010B9651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5851,8 +5447,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1407795" y="19861530"/>
-          <a:ext cx="7357110" cy="3341370"/>
+          <a:off x="1560195" y="18800445"/>
+          <a:ext cx="8210550" cy="3307080"/>
           <a:chOff x="1457325" y="12039600"/>
           <a:chExt cx="8848725" cy="3305175"/>
         </a:xfrm>
@@ -5867,7 +5463,7 @@
           <xdr:cNvPr id="11" name="Picture 10" descr="http://hi.csdn.net/attachment/201009/20/0_1284950237MmGR.gif">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD604A1-AA8F-42DD-B82D-6BAFBA0377A3}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD604A1-AA8F-42DD-B82D-6BAFBA0377A3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5913,7 +5509,7 @@
           <xdr:cNvPr id="12" name="Picture 11" descr="http://hi.csdn.net/attachment/201009/20/0_1284950252qdzk.gif">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9031DA3-BAFC-4A05-901E-297F29CD1239}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9031DA3-BAFC-4A05-901E-297F29CD1239}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5962,137 +5558,6 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52F2FB7-28A1-4073-9D78-FE7B275FC5C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="981075" y="142875"/>
-          <a:ext cx="523875" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>导入</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD8503B1-97B7-4EDF-930D-3FF2E087880C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="142875"/>
-          <a:ext cx="523875" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>生成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -6106,7 +5571,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://static.oschina.net/uploads/space/2016/1207/073031_6fF2_2903254.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E2A812-A2FB-432A-BBC6-21BD782A80C6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E2A812-A2FB-432A-BBC6-21BD782A80C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6200,7 +5665,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6252,7 +5717,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6446,402 +5911,347 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4446336-E905-41E8-A562-BBAE490A3239}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8">
-      <c r="A1" s="72" t="s">
-        <v>775</v>
+    <row r="1" spans="1:2" ht="27.75">
+      <c r="A1" s="41" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>776</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="7"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="23" t="s">
-        <v>628</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="9"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="12" t="s">
-        <v>627</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>629</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA6B4AC-B91A-4584-875E-B49CCF04FB5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.399999999999999">
-      <c r="A1" s="73" t="s">
-        <v>631</v>
+    <row r="1" spans="1:1" ht="18">
+      <c r="A1" s="42" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{898DEDBD-02D5-4396-B024-32B2FBE7E7C4}">
-  <dimension ref="A1:B47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999">
-      <c r="A1" s="70" t="s">
-        <v>745</v>
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="39" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="60" t="s">
-        <v>743</v>
+      <c r="B2" s="29" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="60" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.399999999999999">
-      <c r="B5" s="63" t="s">
-        <v>746</v>
+      <c r="B3" s="29" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="B5" s="32" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="64" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.8">
-      <c r="B7" s="61" t="s">
-        <v>748</v>
+      <c r="B6" s="33" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5">
+      <c r="B7" s="30" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="65" t="s">
-        <v>749</v>
+      <c r="B8" s="34" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="65" t="s">
-        <v>750</v>
+      <c r="B9" s="34" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="65" t="s">
-        <v>751</v>
+      <c r="B10" s="34" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="36" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="31" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5">
+      <c r="B13" s="30" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="34" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5">
+      <c r="B15" s="30" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="31" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="31" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="31" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="18">
+      <c r="B19" s="32" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="31" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16.5">
+      <c r="B21" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="37" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="37" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="37" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="31" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="31" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="35" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="16.5">
+      <c r="B28" s="30" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="37" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="35" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="16.5">
+      <c r="B31" s="30" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="31" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="37" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="38" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="18">
+      <c r="B35" s="32" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="31" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="31"/>
+    </row>
+    <row r="38" spans="2:2" ht="16.5">
+      <c r="B38" s="30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="31" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="16.5">
+      <c r="B40" s="30" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="31" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="31" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="16.5">
+      <c r="B43" s="30" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="31" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="18">
+      <c r="B46" s="32" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="31" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="31"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="31" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="31"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="31" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="62" t="s">
+    <row r="55" spans="2:2">
+      <c r="B55" s="31"/>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="31" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.8">
-      <c r="B13" s="61" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="65" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16.8">
-      <c r="B15" s="61" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="62" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="62" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="62" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="17.399999999999999">
-      <c r="B19" s="63" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="62" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="16.8">
-      <c r="B21" s="61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="68" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="68" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="68" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="62" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="62" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="66" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="16.8">
-      <c r="B28" s="61" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="68" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="66" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="16.8">
-      <c r="B31" s="61" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="62" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="68" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="69" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="17.399999999999999">
-      <c r="B35" s="63" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="62" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="62"/>
-    </row>
-    <row r="38" spans="2:2" ht="16.8">
-      <c r="B38" s="61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="62" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="16.8">
-      <c r="B40" s="61" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="62" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" s="62" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="16.8">
-      <c r="B43" s="61" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="62" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="62" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="17.399999999999999">
-      <c r="B46" s="63" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="62" t="s">
-        <v>738</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B27" r:id="rId1" location="glos_schema" display="http://dev.mysql.com/doc/refman/5.7/en/glossary.html - glos_schema" xr:uid="{5D66CB37-F493-493B-A7CA-1445A276D6FF}"/>
-    <hyperlink ref="B30" r:id="rId2" display="https://msdn.microsoft.com/en-us/library/ms165911.aspx" xr:uid="{22A1C607-F458-447A-AD2F-365310B76E28}"/>
+    <hyperlink ref="B27" r:id="rId1" location="glos_schema" display="http://dev.mysql.com/doc/refman/5.7/en/glossary.html - glos_schema"/>
+    <hyperlink ref="B30" r:id="rId2" display="https://msdn.microsoft.com/en-us/library/ms165911.aspx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -6849,19 +6259,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="29.375" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -6871,653 +6281,653 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O551"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A516" workbookViewId="0">
       <selection activeCell="E489" sqref="E489"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="10" max="10" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:2" ht="20.25">
+      <c r="A1" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="45"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="15" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="15" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="15" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="15" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="15" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="15" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="15" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="B17" s="15" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="15" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="B20" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="B21" s="15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="B22" s="15" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="B23" s="15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="B24" s="15" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="B25" s="15" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20.25">
+      <c r="A28" s="44" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15">
+      <c r="B29" s="49" t="s">
+        <v>480</v>
+      </c>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="B30" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52" t="s">
+        <v>532</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52" t="s">
+        <v>533</v>
+      </c>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="B31" s="51" t="s">
+        <v>483</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="O31" s="51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="B32" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52" t="s">
+        <v>494</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52" t="s">
+        <v>495</v>
+      </c>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="N32" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="O32" s="51" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52" t="s">
+        <v>497</v>
+      </c>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="51" t="s">
         <v>485</v>
       </c>
-      <c r="B1" s="76"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="19" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" s="19" t="s">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52" t="s">
+        <v>498</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="K34" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="L34" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" s="51" t="s">
+        <v>501</v>
+      </c>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52" t="s">
+        <v>502</v>
+      </c>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52" t="s">
+        <v>503</v>
+      </c>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="K35" s="52"/>
+      <c r="L35" s="51" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" s="19" t="s">
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="51" t="s">
+        <v>504</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52" t="s">
+        <v>505</v>
+      </c>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52" t="s">
+        <v>495</v>
+      </c>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="L36" s="51" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="19" t="s">
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="52" t="s">
+        <v>536</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" s="19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="19" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="19" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" s="19" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" s="19" t="s">
+      <c r="I37" s="52"/>
+      <c r="J37" s="52" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" s="19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" s="19" t="s">
+      <c r="K37" s="52"/>
+      <c r="L37" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="51" t="s">
+        <v>506</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52" t="s">
+        <v>507</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="C39" s="51"/>
+      <c r="D39" s="52" t="s">
+        <v>509</v>
+      </c>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="51" t="s">
+        <v>510</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="52" t="s">
+        <v>511</v>
+      </c>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="C41" s="51"/>
+      <c r="D41" s="52" t="s">
+        <v>514</v>
+      </c>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="51" t="s">
+        <v>515</v>
+      </c>
+      <c r="C42" s="51"/>
+      <c r="D42" s="52" t="s">
+        <v>516</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52">
+        <v>10</v>
+      </c>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="51" t="s">
+        <v>517</v>
+      </c>
+      <c r="M42" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="51" t="s">
+        <v>518</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="52" t="s">
+        <v>519</v>
+      </c>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" s="19" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" s="19" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" s="19" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" s="19" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="B17" s="19" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="B18" s="19" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="B19" s="19" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="B20" s="19" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="B21" s="19" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="B22" s="19" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="B23" s="19" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="B24" s="19" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="B25" s="19" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="21">
-      <c r="A28" s="75" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="B29" s="80" t="s">
-        <v>506</v>
-      </c>
-      <c r="C29" s="80"/>
-      <c r="D29" s="79" t="s">
-        <v>515</v>
-      </c>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79" t="s">
-        <v>516</v>
-      </c>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79" t="s">
-        <v>507</v>
-      </c>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="B30" s="77" t="s">
-        <v>508</v>
-      </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78" t="s">
-        <v>558</v>
-      </c>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="H30" s="78" t="s">
-        <v>559</v>
-      </c>
-      <c r="I30" s="78"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="77" t="s">
-        <v>517</v>
-      </c>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="B31" s="77" t="s">
-        <v>509</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78" t="s">
-        <v>560</v>
-      </c>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78" t="s">
-        <v>518</v>
-      </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="77" t="s">
-        <v>519</v>
-      </c>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77" t="s">
-        <v>517</v>
-      </c>
-      <c r="O31" s="77" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="B32" s="77" t="s">
-        <v>510</v>
-      </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78" t="s">
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="51" t="s">
+        <v>546</v>
+      </c>
+      <c r="C44" s="51"/>
+      <c r="D44" s="52" t="s">
         <v>520</v>
       </c>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="78"/>
-      <c r="H32" s="78" t="s">
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="51" t="s">
         <v>521</v>
       </c>
-      <c r="I32" s="78"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77" t="s">
-        <v>517</v>
-      </c>
-      <c r="N32" s="77" t="s">
-        <v>517</v>
-      </c>
-      <c r="O32" s="77" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" s="77" t="s">
+      <c r="C45" s="51"/>
+      <c r="D45" s="52" t="s">
         <v>522</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78" t="s">
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52" t="s">
         <v>523</v>
       </c>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78" t="s">
-        <v>518</v>
-      </c>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="77"/>
-      <c r="O33" s="77"/>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" s="77" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78" t="s">
+      <c r="I45" s="52"/>
+      <c r="J45" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="K45" s="52"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="52" t="s">
+        <v>530</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="E34" s="78"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="78"/>
-      <c r="H34" s="78" t="s">
+      <c r="C47" s="51"/>
+      <c r="D47" s="52" t="s">
         <v>525</v>
       </c>
-      <c r="I34" s="78"/>
-      <c r="J34" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="K34" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="L34" s="77" t="s">
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="I47" s="52"/>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="M34" s="77"/>
-      <c r="N34" s="77"/>
-      <c r="O34" s="77"/>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="77" t="s">
+      <c r="C48" s="51"/>
+      <c r="D48" s="52" t="s">
         <v>527</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78" t="s">
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52" t="s">
         <v>528</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78" t="s">
-        <v>529</v>
-      </c>
-      <c r="I35" s="78"/>
-      <c r="J35" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="K35" s="78"/>
-      <c r="L35" s="77" t="s">
-        <v>512</v>
-      </c>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="77" t="s">
-        <v>530</v>
-      </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78" t="s">
-        <v>531</v>
-      </c>
-      <c r="E36" s="78"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="78"/>
-      <c r="H36" s="78" t="s">
-        <v>521</v>
-      </c>
-      <c r="I36" s="78"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="L36" s="77" t="s">
-        <v>513</v>
-      </c>
-      <c r="M36" s="77"/>
-      <c r="N36" s="77"/>
-      <c r="O36" s="77"/>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" s="77" t="s">
-        <v>561</v>
-      </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="78" t="s">
-        <v>562</v>
-      </c>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78" t="s">
-        <v>514</v>
-      </c>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="K37" s="78"/>
-      <c r="L37" s="77" t="s">
-        <v>517</v>
-      </c>
-      <c r="M37" s="77"/>
-      <c r="N37" s="77"/>
-      <c r="O37" s="77"/>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" s="77" t="s">
-        <v>532</v>
-      </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78" t="s">
-        <v>533</v>
-      </c>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78" t="s">
-        <v>563</v>
-      </c>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="77"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="77"/>
-      <c r="O38" s="77"/>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="B39" s="77" t="s">
-        <v>534</v>
-      </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="78" t="s">
-        <v>535</v>
-      </c>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="77"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="77"/>
-      <c r="O39" s="77"/>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="B40" s="77" t="s">
-        <v>536</v>
-      </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="78" t="s">
-        <v>537</v>
-      </c>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78" t="s">
-        <v>538</v>
-      </c>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="77" t="s">
-        <v>517</v>
-      </c>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" s="77" t="s">
-        <v>539</v>
-      </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78" t="s">
-        <v>540</v>
-      </c>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78" t="s">
-        <v>538</v>
-      </c>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="77" t="s">
-        <v>517</v>
-      </c>
-      <c r="M41" s="77"/>
-      <c r="N41" s="77"/>
-      <c r="O41" s="77"/>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" s="77" t="s">
-        <v>541</v>
-      </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78" t="s">
-        <v>542</v>
-      </c>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78">
-        <v>10</v>
-      </c>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="77" t="s">
-        <v>543</v>
-      </c>
-      <c r="M42" s="77" t="s">
-        <v>517</v>
-      </c>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" s="77" t="s">
-        <v>544</v>
-      </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="78" t="s">
-        <v>545</v>
-      </c>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="78"/>
-      <c r="H43" s="78" t="s">
-        <v>518</v>
-      </c>
-      <c r="I43" s="78"/>
-      <c r="J43" s="78"/>
-      <c r="K43" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" s="77" t="s">
-        <v>572</v>
-      </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78" t="s">
-        <v>546</v>
-      </c>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78" t="s">
-        <v>575</v>
-      </c>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="77"/>
-      <c r="O44" s="77"/>
-    </row>
-    <row r="45" spans="2:15">
-      <c r="B45" s="77" t="s">
-        <v>547</v>
-      </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="78" t="s">
-        <v>548</v>
-      </c>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78" t="s">
-        <v>549</v>
-      </c>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78" t="s">
-        <v>517</v>
-      </c>
-      <c r="K45" s="78"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="77"/>
-      <c r="O45" s="77"/>
-    </row>
-    <row r="46" spans="2:15">
-      <c r="B46" s="77" t="s">
-        <v>555</v>
-      </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="78" t="s">
-        <v>556</v>
-      </c>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78" t="s">
-        <v>557</v>
-      </c>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="77" t="s">
-        <v>550</v>
-      </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="78" t="s">
-        <v>551</v>
-      </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="78"/>
-      <c r="H47" s="78" t="s">
-        <v>301</v>
-      </c>
-      <c r="I47" s="78"/>
-      <c r="J47" s="78"/>
-      <c r="K47" s="78"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="77" t="s">
-        <v>552</v>
-      </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="78" t="s">
-        <v>553</v>
-      </c>
-      <c r="E48" s="78"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="78"/>
-      <c r="H48" s="78" t="s">
-        <v>554</v>
-      </c>
-      <c r="I48" s="78"/>
-      <c r="J48" s="78"/>
-      <c r="K48" s="78"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="77"/>
-      <c r="O48" s="77"/>
-    </row>
-    <row r="50" spans="1:15" ht="21">
-      <c r="A50" s="71" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+    </row>
+    <row r="50" spans="1:15" ht="20.25">
+      <c r="A50" s="40" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15">
       <c r="B51" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" thickBot="1">
+    <row r="52" spans="1:15" ht="15.75" thickBot="1">
       <c r="B52" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="42" thickBot="1">
+    <row r="53" spans="1:15" ht="45.75" thickBot="1">
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>2</v>
@@ -7559,7 +6969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="42" thickBot="1">
+    <row r="54" spans="1:15" ht="30.75" thickBot="1">
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
@@ -7603,7 +7013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="42" thickBot="1">
+    <row r="55" spans="1:15" ht="30.75" thickBot="1">
       <c r="B55" s="2" t="s">
         <v>21</v>
       </c>
@@ -7611,7 +7021,7 @@
         <v>22</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>23</v>
@@ -7623,7 +7033,7 @@
         <v>25</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>26</v>
@@ -7647,7 +7057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="28.2" thickBot="1">
+    <row r="56" spans="1:15" ht="30.75" thickBot="1">
       <c r="B56" s="2" t="s">
         <v>29</v>
       </c>
@@ -7685,13 +7095,13 @@
         <v>25</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="28.2" thickBot="1">
+    <row r="57" spans="1:15" ht="30.75" thickBot="1">
       <c r="B57" s="2" t="s">
         <v>31</v>
       </c>
@@ -7707,7 +7117,7 @@
       <c r="F57" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G57" s="81" t="s">
+      <c r="G57" s="46" t="s">
         <v>33</v>
       </c>
       <c r="H57" s="5" t="s">
@@ -7735,7 +7145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="42" thickBot="1">
+    <row r="58" spans="1:15" ht="30.75" thickBot="1">
       <c r="B58" s="2" t="s">
         <v>37</v>
       </c>
@@ -7779,7 +7189,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="42" thickBot="1">
+    <row r="59" spans="1:15" ht="30.75" thickBot="1">
       <c r="B59" s="2" t="s">
         <v>48</v>
       </c>
@@ -7823,12 +7233,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="28.2" thickBot="1">
+    <row r="60" spans="1:15" ht="30.75" thickBot="1">
       <c r="B60" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>128</v>
@@ -7867,7 +7277,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="28.2" thickBot="1">
+    <row r="61" spans="1:15" ht="30.75" thickBot="1">
       <c r="B61" s="2" t="s">
         <v>55</v>
       </c>
@@ -7911,7 +7321,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="42" thickBot="1">
+    <row r="62" spans="1:15" ht="30.75" thickBot="1">
       <c r="B62" s="2" t="s">
         <v>57</v>
       </c>
@@ -7955,7 +7365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="28.2" thickBot="1">
+    <row r="63" spans="1:15" ht="30.75" thickBot="1">
       <c r="B63" s="2" t="s">
         <v>62</v>
       </c>
@@ -7999,7 +7409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="42" thickBot="1">
+    <row r="64" spans="1:15" ht="30.75" thickBot="1">
       <c r="B64" s="2" t="s">
         <v>64</v>
       </c>
@@ -8043,7 +7453,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="2:15" ht="28.2" thickBot="1">
+    <row r="65" spans="2:15" ht="30.75" thickBot="1">
       <c r="B65" s="2" t="s">
         <v>68</v>
       </c>
@@ -8063,7 +7473,7 @@
         <v>69</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="I65" s="3" t="s">
         <v>71</v>
@@ -8087,7 +7497,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:15" ht="42" thickBot="1">
+    <row r="66" spans="2:15" ht="30.75" thickBot="1">
       <c r="B66" s="2" t="s">
         <v>73</v>
       </c>
@@ -8131,7 +7541,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="2:15" ht="42" thickBot="1">
+    <row r="67" spans="2:15" ht="43.5" thickBot="1">
       <c r="B67" s="2" t="s">
         <v>76</v>
       </c>
@@ -8175,7 +7585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="2:15" ht="28.2" thickBot="1">
+    <row r="68" spans="2:15" ht="30.75" thickBot="1">
       <c r="B68" s="2" t="s">
         <v>83</v>
       </c>
@@ -8219,7 +7629,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="2:15" ht="28.2" thickBot="1">
+    <row r="69" spans="2:15" ht="30.75" thickBot="1">
       <c r="B69" s="2" t="s">
         <v>85</v>
       </c>
@@ -8263,7 +7673,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="70" spans="2:15" ht="42" thickBot="1">
+    <row r="70" spans="2:15" ht="30.75" thickBot="1">
       <c r="B70" s="2" t="s">
         <v>91</v>
       </c>
@@ -8307,7 +7717,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="2:15" ht="42" thickBot="1">
+    <row r="71" spans="2:15" ht="30.75" thickBot="1">
       <c r="B71" s="2" t="s">
         <v>96</v>
       </c>
@@ -8352,164 +7762,164 @@
       </c>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" s="36" t="s">
+      <c r="B72" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="39" t="s">
+      <c r="E72" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="39" t="s">
+      <c r="F72" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="G72" s="39" t="s">
+      <c r="G72" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="H72" s="42" t="s">
+      <c r="H72" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="I72" s="39" t="s">
+      <c r="I72" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="J72" s="33" t="s">
+      <c r="J72" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K72" s="39" t="s">
+      <c r="K72" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="L72" s="42" t="s">
+      <c r="L72" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="M72" s="39" t="s">
+      <c r="M72" s="53" t="s">
         <v>105</v>
       </c>
-      <c r="N72" s="42" t="s">
+      <c r="N72" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="O72" s="39" t="s">
+      <c r="O72" s="53" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" s="37"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="40"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="34" t="s">
+      <c r="B73" s="60"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="57"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="K73" s="40"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="40"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="40"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="54"/>
     </row>
     <row r="74" spans="2:15" ht="15" thickBot="1">
-      <c r="B74" s="38"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="44"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="35" t="s">
+      <c r="B74" s="61"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="K74" s="41"/>
-      <c r="L74" s="44"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="44"/>
-      <c r="O74" s="41"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="58"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="58"/>
+      <c r="O74" s="55"/>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="36" t="s">
+      <c r="B75" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="C75" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="G75" s="39" t="s">
+      <c r="G75" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="H75" s="42" t="s">
+      <c r="H75" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="I75" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="J75" s="33" t="s">
+      <c r="J75" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="K75" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="L75" s="42" t="s">
+      <c r="L75" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="N75" s="42" t="s">
+      <c r="N75" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="O75" s="39" t="s">
+      <c r="O75" s="53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="37"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="40"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="40"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="34" t="s">
+      <c r="B76" s="60"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
+      <c r="E76" s="54"/>
+      <c r="F76" s="54"/>
+      <c r="G76" s="54"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="K76" s="40"/>
-      <c r="L76" s="43"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="43"/>
-      <c r="O76" s="40"/>
+      <c r="K76" s="54"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="54"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="54"/>
     </row>
     <row r="77" spans="2:15" ht="15" thickBot="1">
-      <c r="B77" s="38"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="35" t="s">
+      <c r="B77" s="61"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="K77" s="41"/>
-      <c r="L77" s="44"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="44"/>
-      <c r="O77" s="41"/>
+      <c r="K77" s="55"/>
+      <c r="L77" s="58"/>
+      <c r="M77" s="55"/>
+      <c r="N77" s="58"/>
+      <c r="O77" s="55"/>
     </row>
     <row r="79" spans="2:15">
       <c r="B79" s="7" t="s">
@@ -8522,1787 +7932,1787 @@
     <row r="88" spans="2:9">
       <c r="I88" s="6"/>
     </row>
-    <row r="99" spans="1:2" ht="21">
-      <c r="A99" s="75" t="s">
+    <row r="99" spans="1:2" ht="20.25">
+      <c r="A99" s="44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="B100" s="47" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="B101" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="B103" s="11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="B104" s="11" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="B106" s="11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="B107" s="11" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="B108" s="11" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="B109" s="11" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="B110" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="B111" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="B112" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="11" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="11" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="11"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="11" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="11" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="11"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="11"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="11"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="11" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="11" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="11" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="11" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="47" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="11" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="11" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="B100" s="82" t="s">
+    <row r="147" spans="2:2">
+      <c r="B147" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="B101" s="14" t="s">
+    <row r="148" spans="2:2">
+      <c r="B148" s="11" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="B102" s="14" t="s">
+    <row r="149" spans="2:2">
+      <c r="B149" s="11" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="B103" s="14" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="B104" s="14" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="B105" s="14" t="s">
+    <row r="150" spans="2:2">
+      <c r="B150" s="11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="B106" s="14" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="B107" s="14" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="B108" s="14" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="B109" s="14" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="B110" s="14" t="s">
+    <row r="151" spans="2:2">
+      <c r="B151" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="B111" s="14" t="s">
+    <row r="152" spans="2:2">
+      <c r="B152" s="11" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="B112" s="14" t="s">
+    <row r="153" spans="2:2">
+      <c r="B153" s="11" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="14" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="14" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="14" t="s">
+    <row r="154" spans="2:2">
+      <c r="B154" s="11" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="14"/>
-    </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="14" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="14" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="14" t="s">
+    <row r="155" spans="2:2">
+      <c r="B155" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="14" t="s">
+    <row r="156" spans="2:2">
+      <c r="B156" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="14"/>
-    </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="14" t="s">
+    <row r="157" spans="2:2">
+      <c r="B157" s="11" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="14"/>
-    </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="14" t="s">
+    <row r="158" spans="2:2">
+      <c r="B158" s="11" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="14"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="14" t="s">
+    <row r="159" spans="2:2">
+      <c r="B159" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="82" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" s="11" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="14" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="14" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="14" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="14" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="14" t="s">
+    <row r="161" spans="2:2">
+      <c r="B161" s="11" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="82" t="s">
+    <row r="162" spans="2:2">
+      <c r="B162" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="14" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="14" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="14" t="s">
+    <row r="163" spans="2:2">
+      <c r="B163" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="14" t="s">
+    <row r="164" spans="2:2">
+      <c r="B164" s="11"/>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="11" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="14" t="s">
+    <row r="166" spans="2:2">
+      <c r="B166" s="11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="14" t="s">
+    <row r="167" spans="2:2">
+      <c r="B167" s="11" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="14" t="s">
+    <row r="168" spans="2:2">
+      <c r="B168" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="14" t="s">
+    <row r="169" spans="2:2">
+      <c r="B169" s="11" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="14" t="s">
+    <row r="170" spans="2:2">
+      <c r="B170" s="11" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="14" t="s">
+    <row r="171" spans="2:2">
+      <c r="B171" s="11" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="14" t="s">
+    <row r="172" spans="2:2">
+      <c r="B172" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="14" t="s">
+    <row r="173" spans="2:2">
+      <c r="B173" s="11" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="14" t="s">
+    <row r="174" spans="2:2">
+      <c r="B174" s="11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="14" t="s">
+    <row r="175" spans="2:2">
+      <c r="B175" s="11" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="14" t="s">
+    <row r="176" spans="2:2">
+      <c r="B176" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="14" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" s="11" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="14" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" s="11" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="14" t="s">
+    <row r="179" spans="2:2">
+      <c r="B179" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="14" t="s">
+    <row r="180" spans="2:2">
+      <c r="B180" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="14" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" s="11" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="14" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" s="11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="14" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" s="11" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="14" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="14" t="s">
+    <row r="185" spans="2:2">
+      <c r="B185" s="11" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="14" t="s">
+    <row r="186" spans="2:2">
+      <c r="B186" s="11" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="14" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" s="11" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="14" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="14"/>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="14" t="s">
+    <row r="189" spans="2:2">
+      <c r="B189" s="11" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="14" t="s">
+    <row r="190" spans="2:2">
+      <c r="B190" s="11" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="14" t="s">
+    <row r="191" spans="2:2">
+      <c r="B191" s="11" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="14" t="s">
+    <row r="192" spans="2:2">
+      <c r="B192" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="14" t="s">
+    <row r="193" spans="1:2">
+      <c r="B193" s="11" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="14" t="s">
+    <row r="194" spans="1:2">
+      <c r="B194" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="14" t="s">
+    <row r="195" spans="1:2">
+      <c r="B195" s="11" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="14" t="s">
+    <row r="196" spans="1:2">
+      <c r="B196" s="11" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="14" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="14" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="14" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="14" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="14" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="14" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="14" t="s">
+    <row r="200" spans="1:2" ht="18">
+      <c r="A200" s="43" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="16.5">
+      <c r="B201" s="13" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="16.5">
+      <c r="B202" s="13"/>
+    </row>
+    <row r="203" spans="1:2" ht="16.5">
+      <c r="B203" s="13"/>
+    </row>
+    <row r="204" spans="1:2" ht="16.5">
+      <c r="B204" s="13"/>
+    </row>
+    <row r="205" spans="1:2" ht="16.5">
+      <c r="B205" s="13"/>
+    </row>
+    <row r="206" spans="1:2" ht="16.5">
+      <c r="B206" s="13"/>
+    </row>
+    <row r="207" spans="1:2" ht="16.5">
+      <c r="B207" s="13"/>
+    </row>
+    <row r="208" spans="1:2" ht="16.5">
+      <c r="B208" s="13"/>
+    </row>
+    <row r="209" spans="2:2" ht="16.5">
+      <c r="B209" s="13"/>
+    </row>
+    <row r="210" spans="2:2" ht="16.5">
+      <c r="B210" s="13"/>
+    </row>
+    <row r="211" spans="2:2" ht="16.5">
+      <c r="B211" s="13"/>
+    </row>
+    <row r="212" spans="2:2" ht="16.5">
+      <c r="B212" s="13"/>
+    </row>
+    <row r="213" spans="2:2" ht="16.5">
+      <c r="B213" s="13"/>
+    </row>
+    <row r="214" spans="2:2" ht="16.5">
+      <c r="B214" s="13"/>
+    </row>
+    <row r="215" spans="2:2" ht="16.5">
+      <c r="B215" s="13"/>
+    </row>
+    <row r="216" spans="2:2" ht="16.5">
+      <c r="B216" s="13"/>
+    </row>
+    <row r="217" spans="2:2" ht="16.5">
+      <c r="B217" s="13"/>
+    </row>
+    <row r="218" spans="2:2" ht="16.5">
+      <c r="B218" s="13"/>
+    </row>
+    <row r="219" spans="2:2" ht="16.5">
+      <c r="B219" s="13"/>
+    </row>
+    <row r="220" spans="2:2" ht="16.5">
+      <c r="B220" s="13"/>
+    </row>
+    <row r="221" spans="2:2" ht="16.5">
+      <c r="B221" s="13"/>
+    </row>
+    <row r="222" spans="2:2" ht="16.5">
+      <c r="B222" s="13"/>
+    </row>
+    <row r="244" spans="2:2" ht="16.5">
+      <c r="B244" s="13"/>
+    </row>
+    <row r="245" spans="2:2" ht="16.5">
+      <c r="B245" s="13"/>
+    </row>
+    <row r="246" spans="2:2" ht="16.5">
+      <c r="B246" s="13"/>
+    </row>
+    <row r="247" spans="2:2" ht="16.5">
+      <c r="B247" s="13"/>
+    </row>
+    <row r="248" spans="2:2" ht="16.5">
+      <c r="B248" s="13"/>
+    </row>
+    <row r="249" spans="2:2" ht="16.5">
+      <c r="B249" s="13"/>
+    </row>
+    <row r="250" spans="2:2" ht="16.5">
+      <c r="B250" s="13"/>
+    </row>
+    <row r="251" spans="2:2" ht="16.5">
+      <c r="B251" s="13"/>
+    </row>
+    <row r="252" spans="2:2" ht="16.5">
+      <c r="B252" s="13"/>
+    </row>
+    <row r="253" spans="2:2" ht="16.5">
+      <c r="B253" s="13"/>
+    </row>
+    <row r="254" spans="2:2" ht="16.5">
+      <c r="B254" s="13"/>
+    </row>
+    <row r="255" spans="2:2" ht="16.5">
+      <c r="B255" s="13"/>
+    </row>
+    <row r="256" spans="2:2" ht="16.5">
+      <c r="B256" s="13"/>
+    </row>
+    <row r="257" spans="2:2" ht="16.5">
+      <c r="B257" s="13"/>
+    </row>
+    <row r="258" spans="2:2" ht="16.5">
+      <c r="B258" s="13"/>
+    </row>
+    <row r="259" spans="2:2" ht="16.5">
+      <c r="B259" s="13"/>
+    </row>
+    <row r="260" spans="2:2" ht="16.5">
+      <c r="B260" s="13"/>
+    </row>
+    <row r="261" spans="2:2" ht="16.5">
+      <c r="B261" s="13"/>
+    </row>
+    <row r="262" spans="2:2" ht="16.5">
+      <c r="B262" s="13"/>
+    </row>
+    <row r="263" spans="2:2" ht="16.5">
+      <c r="B263" s="13"/>
+    </row>
+    <row r="264" spans="2:2" ht="16.5">
+      <c r="B264" s="13"/>
+    </row>
+    <row r="265" spans="2:2" ht="16.5">
+      <c r="B265" s="13"/>
+    </row>
+    <row r="266" spans="2:2" ht="16.5">
+      <c r="B266" s="13"/>
+    </row>
+    <row r="267" spans="2:2" ht="16.5">
+      <c r="B267" s="13"/>
+    </row>
+    <row r="268" spans="2:2" ht="16.5">
+      <c r="B268" s="13"/>
+    </row>
+    <row r="269" spans="2:2" ht="16.5">
+      <c r="B269" s="13"/>
+    </row>
+    <row r="270" spans="2:2" ht="16.5">
+      <c r="B270" s="13"/>
+    </row>
+    <row r="271" spans="2:2" ht="16.5">
+      <c r="B271" s="13"/>
+    </row>
+    <row r="272" spans="2:2" ht="16.5">
+      <c r="B272" s="13"/>
+    </row>
+    <row r="273" spans="2:2" ht="16.5">
+      <c r="B273" s="13"/>
+    </row>
+    <row r="274" spans="2:2" ht="16.5">
+      <c r="B274" s="13"/>
+    </row>
+    <row r="275" spans="2:2" ht="16.5">
+      <c r="B275" s="13"/>
+    </row>
+    <row r="276" spans="2:2" ht="16.5">
+      <c r="B276" s="13"/>
+    </row>
+    <row r="277" spans="2:2" ht="16.5">
+      <c r="B277" s="13"/>
+    </row>
+    <row r="278" spans="2:2" ht="16.5">
+      <c r="B278" s="13"/>
+    </row>
+    <row r="279" spans="2:2" ht="16.5">
+      <c r="B279" s="13"/>
+    </row>
+    <row r="280" spans="2:2" ht="16.5">
+      <c r="B280" s="13"/>
+    </row>
+    <row r="281" spans="2:2" ht="21">
+      <c r="B281" s="48" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="14" t="s">
+    <row r="282" spans="2:2" ht="16.5">
+      <c r="B282" s="13" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="14" t="s">
+    <row r="283" spans="2:2" ht="16.5">
+      <c r="B283" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="14" t="s">
+    <row r="284" spans="2:2" ht="16.5">
+      <c r="B284" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="14" t="s">
+    <row r="285" spans="2:2" ht="16.5">
+      <c r="B285" s="13" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="14" t="s">
+    <row r="286" spans="2:2" ht="16.5">
+      <c r="B286" s="13" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="14" t="s">
+    <row r="287" spans="2:2" ht="16.5">
+      <c r="B287" s="13" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="14" t="s">
+    <row r="288" spans="2:2" ht="16.5">
+      <c r="B288" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="14" t="s">
+    <row r="289" spans="2:2" ht="16.5">
+      <c r="B289" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="14" t="s">
+    <row r="290" spans="2:2" ht="16.5">
+      <c r="B290" s="13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="B193" s="14" t="s">
+    <row r="291" spans="2:2" ht="16.5">
+      <c r="B291" s="13" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="B194" s="14" t="s">
+    <row r="292" spans="2:2" ht="16.5">
+      <c r="B292" s="13" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="B195" s="14" t="s">
+    <row r="293" spans="2:2" ht="16.5">
+      <c r="B293" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="B196" s="14" t="s">
+    <row r="294" spans="2:2" ht="16.5">
+      <c r="B294" s="13" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="18">
-      <c r="A200" s="74" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="15.6">
-      <c r="B201" s="17" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="15.6">
-      <c r="B202" s="17"/>
-    </row>
-    <row r="203" spans="1:2" ht="15.6">
-      <c r="B203" s="17"/>
-    </row>
-    <row r="204" spans="1:2" ht="15.6">
-      <c r="B204" s="17"/>
-    </row>
-    <row r="205" spans="1:2" ht="15.6">
-      <c r="B205" s="17"/>
-    </row>
-    <row r="206" spans="1:2" ht="15.6">
-      <c r="B206" s="17"/>
-    </row>
-    <row r="207" spans="1:2" ht="15.6">
-      <c r="B207" s="17"/>
-    </row>
-    <row r="208" spans="1:2" ht="15.6">
-      <c r="B208" s="17"/>
-    </row>
-    <row r="209" spans="2:2" ht="15.6">
-      <c r="B209" s="17"/>
-    </row>
-    <row r="210" spans="2:2" ht="15.6">
-      <c r="B210" s="17"/>
-    </row>
-    <row r="211" spans="2:2" ht="15.6">
-      <c r="B211" s="17"/>
-    </row>
-    <row r="212" spans="2:2" ht="15.6">
-      <c r="B212" s="17"/>
-    </row>
-    <row r="213" spans="2:2" ht="15.6">
-      <c r="B213" s="17"/>
-    </row>
-    <row r="214" spans="2:2" ht="15.6">
-      <c r="B214" s="17"/>
-    </row>
-    <row r="215" spans="2:2" ht="15.6">
-      <c r="B215" s="17"/>
-    </row>
-    <row r="216" spans="2:2" ht="15.6">
-      <c r="B216" s="17"/>
-    </row>
-    <row r="217" spans="2:2" ht="15.6">
-      <c r="B217" s="17"/>
-    </row>
-    <row r="218" spans="2:2" ht="15.6">
-      <c r="B218" s="17"/>
-    </row>
-    <row r="219" spans="2:2" ht="15.6">
-      <c r="B219" s="17"/>
-    </row>
-    <row r="220" spans="2:2" ht="15.6">
-      <c r="B220" s="17"/>
-    </row>
-    <row r="221" spans="2:2" ht="15.6">
-      <c r="B221" s="17"/>
-    </row>
-    <row r="222" spans="2:2" ht="15.6">
-      <c r="B222" s="17"/>
-    </row>
-    <row r="244" spans="2:2" ht="15.6">
-      <c r="B244" s="17"/>
-    </row>
-    <row r="245" spans="2:2" ht="15.6">
-      <c r="B245" s="17"/>
-    </row>
-    <row r="246" spans="2:2" ht="15.6">
-      <c r="B246" s="17"/>
-    </row>
-    <row r="247" spans="2:2" ht="15.6">
-      <c r="B247" s="17"/>
-    </row>
-    <row r="248" spans="2:2" ht="15.6">
-      <c r="B248" s="17"/>
-    </row>
-    <row r="249" spans="2:2" ht="15.6">
-      <c r="B249" s="17"/>
-    </row>
-    <row r="250" spans="2:2" ht="15.6">
-      <c r="B250" s="17"/>
-    </row>
-    <row r="251" spans="2:2" ht="15.6">
-      <c r="B251" s="17"/>
-    </row>
-    <row r="252" spans="2:2" ht="15.6">
-      <c r="B252" s="17"/>
-    </row>
-    <row r="253" spans="2:2" ht="15.6">
-      <c r="B253" s="17"/>
-    </row>
-    <row r="254" spans="2:2" ht="15.6">
-      <c r="B254" s="17"/>
-    </row>
-    <row r="255" spans="2:2" ht="15.6">
-      <c r="B255" s="17"/>
-    </row>
-    <row r="256" spans="2:2" ht="15.6">
-      <c r="B256" s="17"/>
-    </row>
-    <row r="257" spans="2:2" ht="15.6">
-      <c r="B257" s="17"/>
-    </row>
-    <row r="258" spans="2:2" ht="15.6">
-      <c r="B258" s="17"/>
-    </row>
-    <row r="259" spans="2:2" ht="15.6">
-      <c r="B259" s="17"/>
-    </row>
-    <row r="260" spans="2:2" ht="15.6">
-      <c r="B260" s="17"/>
-    </row>
-    <row r="261" spans="2:2" ht="15.6">
-      <c r="B261" s="17"/>
-    </row>
-    <row r="262" spans="2:2" ht="15.6">
-      <c r="B262" s="17"/>
-    </row>
-    <row r="263" spans="2:2" ht="15.6">
-      <c r="B263" s="17"/>
-    </row>
-    <row r="264" spans="2:2" ht="15.6">
-      <c r="B264" s="17"/>
-    </row>
-    <row r="265" spans="2:2" ht="15.6">
-      <c r="B265" s="17"/>
-    </row>
-    <row r="266" spans="2:2" ht="15.6">
-      <c r="B266" s="17"/>
-    </row>
-    <row r="267" spans="2:2" ht="15.6">
-      <c r="B267" s="17"/>
-    </row>
-    <row r="268" spans="2:2" ht="15.6">
-      <c r="B268" s="17"/>
-    </row>
-    <row r="269" spans="2:2" ht="15.6">
-      <c r="B269" s="17"/>
-    </row>
-    <row r="270" spans="2:2" ht="15.6">
-      <c r="B270" s="17"/>
-    </row>
-    <row r="271" spans="2:2" ht="15.6">
-      <c r="B271" s="17"/>
-    </row>
-    <row r="272" spans="2:2" ht="15.6">
-      <c r="B272" s="17"/>
-    </row>
-    <row r="273" spans="2:2" ht="15.6">
-      <c r="B273" s="17"/>
-    </row>
-    <row r="274" spans="2:2" ht="15.6">
-      <c r="B274" s="17"/>
-    </row>
-    <row r="275" spans="2:2" ht="15.6">
-      <c r="B275" s="17"/>
-    </row>
-    <row r="276" spans="2:2" ht="15.6">
-      <c r="B276" s="17"/>
-    </row>
-    <row r="277" spans="2:2" ht="15.6">
-      <c r="B277" s="17"/>
-    </row>
-    <row r="278" spans="2:2" ht="15.6">
-      <c r="B278" s="17"/>
-    </row>
-    <row r="279" spans="2:2" ht="15.6">
-      <c r="B279" s="17"/>
-    </row>
-    <row r="280" spans="2:2" ht="15.6">
-      <c r="B280" s="17"/>
-    </row>
-    <row r="281" spans="2:2" ht="20.399999999999999">
-      <c r="B281" s="83" t="s">
+    <row r="295" spans="2:2" ht="16.5">
+      <c r="B295" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" ht="16.5">
+      <c r="B296" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" ht="16.5">
+      <c r="B297" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" ht="16.5">
+      <c r="B298" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" ht="16.5">
+      <c r="B299" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" ht="16.5">
+      <c r="B300" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" ht="16.5">
+      <c r="B301" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2">
+      <c r="B302" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" ht="16.5">
+      <c r="B303" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" ht="16.5">
+      <c r="B304" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="16.5">
+      <c r="B305" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" ht="16.5">
+      <c r="B306" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="16.5">
+      <c r="B307" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="15.6">
-      <c r="B282" s="17" t="s">
+    <row r="308" spans="2:2" ht="16.5">
+      <c r="B308" s="13" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="15.6">
-      <c r="B283" s="17" t="s">
+    <row r="309" spans="2:2" ht="16.5">
+      <c r="B309" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="284" spans="2:2" ht="15.6">
-      <c r="B284" s="17" t="s">
+    <row r="310" spans="2:2" ht="16.5">
+      <c r="B310" s="13" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="285" spans="2:2" ht="15.6">
-      <c r="B285" s="17" t="s">
+    <row r="311" spans="2:2" ht="16.5">
+      <c r="B311" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="286" spans="2:2" ht="15.6">
-      <c r="B286" s="17" t="s">
+    <row r="312" spans="2:2" ht="16.5">
+      <c r="B312" s="13" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="287" spans="2:2" ht="15.6">
-      <c r="B287" s="17" t="s">
+    <row r="313" spans="2:2" ht="16.5">
+      <c r="B313" s="13" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="288" spans="2:2" ht="15.6">
-      <c r="B288" s="17" t="s">
+    <row r="314" spans="2:2" ht="16.5">
+      <c r="B314" s="13" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="289" spans="2:2" ht="15.6">
-      <c r="B289" s="17" t="s">
+    <row r="315" spans="2:2" ht="16.5">
+      <c r="B315" s="13" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="290" spans="2:2" ht="15.6">
-      <c r="B290" s="17" t="s">
+    <row r="316" spans="2:2" ht="16.5">
+      <c r="B316" s="13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="291" spans="2:2" ht="15.6">
-      <c r="B291" s="17" t="s">
+    <row r="317" spans="2:2" ht="16.5">
+      <c r="B317" s="13" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="292" spans="2:2" ht="15.6">
-      <c r="B292" s="17" t="s">
+    <row r="318" spans="2:2" ht="16.5">
+      <c r="B318" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="293" spans="2:2" ht="15.6">
-      <c r="B293" s="17" t="s">
+    <row r="319" spans="2:2" ht="16.5">
+      <c r="B319" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="294" spans="2:2" ht="15.6">
-      <c r="B294" s="17" t="s">
+    <row r="320" spans="2:2" ht="16.5">
+      <c r="B320" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="295" spans="2:2" ht="16.2">
-      <c r="B295" s="17" t="s">
+    <row r="321" spans="2:2" ht="16.5">
+      <c r="B321" s="13" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="15.6">
-      <c r="B296" s="17" t="s">
+    <row r="322" spans="2:2" ht="16.5">
+      <c r="B322" s="13" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="297" spans="2:2" ht="15.6">
-      <c r="B297" s="17" t="s">
+    <row r="323" spans="2:2" ht="16.5">
+      <c r="B323" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="298" spans="2:2" ht="15.6">
-      <c r="B298" s="17" t="s">
+    <row r="324" spans="2:2" ht="16.5">
+      <c r="B324" s="13" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="299" spans="2:2" ht="15.6">
-      <c r="B299" s="17" t="s">
+    <row r="325" spans="2:2" ht="16.5">
+      <c r="B325" s="13" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="300" spans="2:2" ht="15.6">
-      <c r="B300" s="17" t="s">
+    <row r="326" spans="2:2" ht="16.5">
+      <c r="B326" s="13" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="301" spans="2:2" ht="15.6">
-      <c r="B301" s="17" t="s">
+    <row r="327" spans="2:2" ht="16.5">
+      <c r="B327" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="302" spans="2:2">
-      <c r="B302" s="18" t="s">
+    <row r="328" spans="2:2" ht="16.5">
+      <c r="B328" s="13" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="303" spans="2:2" ht="15.6">
-      <c r="B303" s="17" t="s">
+    <row r="329" spans="2:2" ht="16.5">
+      <c r="B329" s="13" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="304" spans="2:2" ht="15.6">
-      <c r="B304" s="17" t="s">
+    <row r="330" spans="2:2" ht="16.5">
+      <c r="B330" s="13" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="15.6">
-      <c r="B305" s="17" t="s">
+    <row r="331" spans="2:2" ht="16.5">
+      <c r="B331" s="13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="15.6">
-      <c r="B306" s="17" t="s">
+    <row r="332" spans="2:2" ht="16.5">
+      <c r="B332" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="15.6">
-      <c r="B307" s="17" t="s">
+    <row r="333" spans="2:2" ht="16.5">
+      <c r="B333" s="13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="15.6">
-      <c r="B308" s="17" t="s">
+    <row r="334" spans="2:2" ht="16.5">
+      <c r="B334" s="13" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="309" spans="2:2" ht="15.6">
-      <c r="B309" s="17" t="s">
+    <row r="335" spans="2:2" ht="16.5">
+      <c r="B335" s="13" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="310" spans="2:2" ht="15.6">
-      <c r="B310" s="17" t="s">
+    <row r="336" spans="2:2" ht="16.5">
+      <c r="B336" s="13" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="15.6">
-      <c r="B311" s="17" t="s">
+    <row r="337" spans="2:2" ht="16.5">
+      <c r="B337" s="13" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="15.6">
-      <c r="B312" s="17" t="s">
+    <row r="338" spans="2:2" ht="16.5">
+      <c r="B338" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="15.6">
-      <c r="B313" s="17" t="s">
+    <row r="339" spans="2:2" ht="16.5">
+      <c r="B339" s="13" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="15.6">
-      <c r="B314" s="17" t="s">
+    <row r="340" spans="2:2" ht="16.5">
+      <c r="B340" s="13" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="15.6">
-      <c r="B315" s="17" t="s">
+    <row r="341" spans="2:2" ht="16.5">
+      <c r="B341" s="13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="316" spans="2:2" ht="15.6">
-      <c r="B316" s="17" t="s">
+    <row r="342" spans="2:2" ht="16.5">
+      <c r="B342" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="15.6">
-      <c r="B317" s="17" t="s">
+    <row r="343" spans="2:2" ht="16.5">
+      <c r="B343" s="13" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="15.6">
-      <c r="B318" s="17" t="s">
+    <row r="344" spans="2:2" ht="16.5">
+      <c r="B344" s="13" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="15.6">
-      <c r="B319" s="17" t="s">
+    <row r="345" spans="2:2" ht="16.5">
+      <c r="B345" s="13" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="15.6">
-      <c r="B320" s="17" t="s">
+    <row r="346" spans="2:2" ht="16.5">
+      <c r="B346" s="13" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="321" spans="2:2" ht="15.6">
-      <c r="B321" s="17" t="s">
+    <row r="347" spans="2:2" ht="16.5">
+      <c r="B347" s="13" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="15.6">
-      <c r="B322" s="17" t="s">
+    <row r="348" spans="2:2" ht="16.5">
+      <c r="B348" s="13" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="323" spans="2:2" ht="15.6">
-      <c r="B323" s="17" t="s">
+    <row r="349" spans="2:2" ht="16.5">
+      <c r="B349" s="13" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="324" spans="2:2" ht="15.6">
-      <c r="B324" s="17" t="s">
+    <row r="350" spans="2:2" ht="16.5">
+      <c r="B350" s="13" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="15.6">
-      <c r="B325" s="17" t="s">
+    <row r="351" spans="2:2" ht="16.5">
+      <c r="B351" s="13" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="15.6">
-      <c r="B326" s="17" t="s">
+    <row r="352" spans="2:2" ht="16.5">
+      <c r="B352" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="327" spans="2:2" ht="15.6">
-      <c r="B327" s="17" t="s">
+    <row r="353" spans="2:2" ht="21">
+      <c r="B353" s="48" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="328" spans="2:2" ht="15.6">
-      <c r="B328" s="17" t="s">
+    <row r="354" spans="2:2" ht="16.5">
+      <c r="B354" s="13" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="15.6">
-      <c r="B329" s="17" t="s">
+    <row r="355" spans="2:2" ht="16.5">
+      <c r="B355" s="13" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="330" spans="2:2" ht="15.6">
-      <c r="B330" s="17" t="s">
+    <row r="356" spans="2:2" ht="16.5">
+      <c r="B356" s="13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="331" spans="2:2" ht="15.6">
-      <c r="B331" s="17" t="s">
+    <row r="357" spans="2:2" ht="16.5">
+      <c r="B357" s="13" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="15.6">
-      <c r="B332" s="17" t="s">
+    <row r="358" spans="2:2" ht="16.5">
+      <c r="B358" s="13" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="333" spans="2:2" ht="15.6">
-      <c r="B333" s="17" t="s">
+    <row r="359" spans="2:2" ht="16.5">
+      <c r="B359" s="13" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="334" spans="2:2" ht="15.6">
-      <c r="B334" s="17" t="s">
+    <row r="360" spans="2:2" ht="16.5">
+      <c r="B360" s="13" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="15.6">
-      <c r="B335" s="17" t="s">
+    <row r="361" spans="2:2" ht="16.5">
+      <c r="B361" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2" ht="16.5">
+      <c r="B362" s="13" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="336" spans="2:2" ht="15.6">
-      <c r="B336" s="17" t="s">
+    <row r="363" spans="2:2" ht="16.5">
+      <c r="B363" s="13" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="337" spans="2:2" ht="15.6">
-      <c r="B337" s="17" t="s">
+    <row r="364" spans="2:2" ht="16.5">
+      <c r="B364" s="13" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="338" spans="2:2" ht="15.6">
-      <c r="B338" s="17" t="s">
+    <row r="365" spans="2:2" ht="16.5">
+      <c r="B365" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" ht="16.5">
+      <c r="B366" s="13" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="339" spans="2:2" ht="15.6">
-      <c r="B339" s="17" t="s">
+    <row r="367" spans="2:2" ht="16.5">
+      <c r="B367" s="13" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="340" spans="2:2" ht="15.6">
-      <c r="B340" s="17" t="s">
+    <row r="368" spans="2:2" ht="16.5">
+      <c r="B368" s="13" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="15.6">
-      <c r="B341" s="17" t="s">
+    <row r="369" spans="2:2" ht="16.5">
+      <c r="B369" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" ht="16.5">
+      <c r="B370" s="13" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="342" spans="2:2" ht="15.6">
-      <c r="B342" s="17" t="s">
+    <row r="371" spans="2:2" ht="16.5">
+      <c r="B371" s="13" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="343" spans="2:2" ht="15.6">
-      <c r="B343" s="17" t="s">
+    <row r="372" spans="2:2" ht="16.5">
+      <c r="B372" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="344" spans="2:2" ht="15.6">
-      <c r="B344" s="17" t="s">
+    <row r="373" spans="2:2" ht="16.5">
+      <c r="B373" s="13" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="345" spans="2:2" ht="15.6">
-      <c r="B345" s="17" t="s">
+    <row r="374" spans="2:2" ht="16.5">
+      <c r="B374" s="13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="346" spans="2:2" ht="15.6">
-      <c r="B346" s="17" t="s">
+    <row r="375" spans="2:2" ht="16.5">
+      <c r="B375" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="15.6">
-      <c r="B347" s="17" t="s">
+    <row r="376" spans="2:2" ht="16.5">
+      <c r="B376" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" ht="16.5">
+      <c r="B377" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="348" spans="2:2" ht="15.6">
-      <c r="B348" s="17" t="s">
+    <row r="378" spans="2:2" ht="16.5">
+      <c r="B378" s="13" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="349" spans="2:2" ht="15.6">
-      <c r="B349" s="17" t="s">
+    <row r="379" spans="2:2" ht="16.5">
+      <c r="B379" s="13" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="350" spans="2:2" ht="15.6">
-      <c r="B350" s="17" t="s">
+    <row r="380" spans="2:2" ht="16.5">
+      <c r="B380" s="13" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="351" spans="2:2" ht="15.6">
-      <c r="B351" s="17" t="s">
+    <row r="381" spans="2:2" ht="16.5">
+      <c r="B381" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="352" spans="2:2" ht="15.6">
-      <c r="B352" s="17" t="s">
+    <row r="382" spans="2:2" ht="16.5">
+      <c r="B382" s="13" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="353" spans="2:2" ht="20.399999999999999">
-      <c r="B353" s="83" t="s">
+    <row r="383" spans="2:2" ht="16.5">
+      <c r="B383" s="13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="354" spans="2:2" ht="15.6">
-      <c r="B354" s="17" t="s">
+    <row r="384" spans="2:2" ht="16.5">
+      <c r="B384" s="13" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="355" spans="2:2" ht="15.6">
-      <c r="B355" s="17" t="s">
+    <row r="385" spans="2:2" ht="16.5">
+      <c r="B385" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" ht="16.5">
+      <c r="B386" s="13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="356" spans="2:2" ht="15.6">
-      <c r="B356" s="17" t="s">
+    <row r="387" spans="2:2" ht="16.5">
+      <c r="B387" s="13" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="357" spans="2:2" ht="15.6">
-      <c r="B357" s="17" t="s">
+    <row r="388" spans="2:2" ht="16.5">
+      <c r="B388" s="13" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="358" spans="2:2" ht="15.6">
-      <c r="B358" s="17" t="s">
+    <row r="389" spans="2:2" ht="16.5">
+      <c r="B389" s="13" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="359" spans="2:2" ht="15.6">
-      <c r="B359" s="17" t="s">
+    <row r="390" spans="2:2" ht="16.5">
+      <c r="B390" s="13" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="360" spans="2:2" ht="15.6">
-      <c r="B360" s="17" t="s">
+    <row r="391" spans="2:2" ht="16.5">
+      <c r="B391" s="13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="361" spans="2:2" ht="15.6">
-      <c r="B361" s="17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="362" spans="2:2" ht="15.6">
-      <c r="B362" s="17" t="s">
+    <row r="392" spans="2:2" ht="16.5">
+      <c r="B392" s="13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="2:2" ht="15.6">
-      <c r="B363" s="17" t="s">
+    <row r="393" spans="2:2" ht="16.5">
+      <c r="B393" s="13" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="2:2" ht="15.6">
-      <c r="B364" s="17" t="s">
+    <row r="394" spans="2:2" ht="16.5">
+      <c r="B394" s="13" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="2:2" ht="15.6">
-      <c r="B365" s="17" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2" ht="15.6">
-      <c r="B366" s="17" t="s">
+    <row r="395" spans="2:2" ht="16.5">
+      <c r="B395" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="2:2" ht="15.6">
-      <c r="B367" s="17" t="s">
+    <row r="396" spans="2:2" ht="16.5">
+      <c r="B396" s="13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="2:2" ht="15.6">
-      <c r="B368" s="17" t="s">
+    <row r="397" spans="2:2" ht="16.5">
+      <c r="B397" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="2:2" ht="15.6">
-      <c r="B369" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" ht="15.6">
-      <c r="B370" s="17" t="s">
+    <row r="398" spans="2:2" ht="16.5">
+      <c r="B398" s="13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="371" spans="2:2" ht="15.6">
-      <c r="B371" s="17" t="s">
+    <row r="399" spans="2:2" ht="16.5">
+      <c r="B399" s="13" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="372" spans="2:2" ht="15.6">
-      <c r="B372" s="17" t="s">
+    <row r="400" spans="2:2" ht="16.5">
+      <c r="B400" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" ht="16.5">
+      <c r="B401" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" ht="16.5">
+      <c r="B402" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="373" spans="2:2" ht="15.6">
-      <c r="B373" s="17" t="s">
+    <row r="403" spans="2:2" ht="16.5">
+      <c r="B403" s="13" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="374" spans="2:2" ht="15.6">
-      <c r="B374" s="17" t="s">
+    <row r="404" spans="2:2" ht="16.5">
+      <c r="B404" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="405" spans="2:2" ht="16.5">
+      <c r="B405" s="13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="375" spans="2:2" ht="15.6">
-      <c r="B375" s="17" t="s">
+    <row r="406" spans="2:2" ht="16.5">
+      <c r="B406" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="376" spans="2:2" ht="15.6">
-      <c r="B376" s="17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2" ht="15.6">
-      <c r="B377" s="17" t="s">
+    <row r="407" spans="2:2" ht="16.5">
+      <c r="B407" s="13" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="378" spans="2:2" ht="15.6">
-      <c r="B378" s="17" t="s">
+    <row r="408" spans="2:2" ht="16.5">
+      <c r="B408" s="13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="379" spans="2:2" ht="15.6">
-      <c r="B379" s="17" t="s">
+    <row r="409" spans="2:2" ht="16.5">
+      <c r="B409" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="380" spans="2:2" ht="15.6">
-      <c r="B380" s="17" t="s">
+    <row r="410" spans="2:2" ht="16.5">
+      <c r="B410" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="381" spans="2:2" ht="15.6">
-      <c r="B381" s="17" t="s">
+    <row r="411" spans="2:2" ht="16.5">
+      <c r="B411" s="13" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="16.5">
+      <c r="B412" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" ht="16.5">
+      <c r="B413" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="382" spans="2:2" ht="15.6">
-      <c r="B382" s="17" t="s">
+    <row r="414" spans="2:2" ht="16.5">
+      <c r="B414" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="383" spans="2:2" ht="15.6">
-      <c r="B383" s="17" t="s">
+    <row r="415" spans="2:2" ht="21">
+      <c r="B415" s="48" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="384" spans="2:2" ht="15.6">
-      <c r="B384" s="17" t="s">
+    <row r="416" spans="2:2" ht="16.5">
+      <c r="B416" s="13" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="385" spans="2:2" ht="15.6">
-      <c r="B385" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="386" spans="2:2" ht="15.6">
-      <c r="B386" s="17" t="s">
+    <row r="417" spans="2:2" ht="16.5">
+      <c r="B417" s="13" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="387" spans="2:2" ht="15.6">
-      <c r="B387" s="17" t="s">
+    <row r="418" spans="2:2" ht="16.5">
+      <c r="B418" s="13" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="388" spans="2:2" ht="15.6">
-      <c r="B388" s="17" t="s">
+    <row r="419" spans="2:2" ht="16.5">
+      <c r="B419" s="13" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="389" spans="2:2" ht="15.6">
-      <c r="B389" s="17" t="s">
+    <row r="420" spans="2:2" ht="16.5">
+      <c r="B420" s="13" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="390" spans="2:2" ht="15.6">
-      <c r="B390" s="17" t="s">
+    <row r="421" spans="2:2" ht="16.5">
+      <c r="B421" s="13" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="391" spans="2:2" ht="15.6">
-      <c r="B391" s="17" t="s">
+    <row r="422" spans="2:2" ht="16.5">
+      <c r="B422" s="13" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="392" spans="2:2" ht="15.6">
-      <c r="B392" s="17" t="s">
+    <row r="423" spans="2:2" ht="16.5">
+      <c r="B423" s="13" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="393" spans="2:2" ht="15.6">
-      <c r="B393" s="17" t="s">
+    <row r="424" spans="2:2" ht="16.5">
+      <c r="B424" s="13" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="394" spans="2:2" ht="15.6">
-      <c r="B394" s="17" t="s">
+    <row r="425" spans="2:2" ht="16.5">
+      <c r="B425" s="13" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="395" spans="2:2" ht="15.6">
-      <c r="B395" s="17" t="s">
+    <row r="426" spans="2:2" ht="16.5">
+      <c r="B426" s="13" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="396" spans="2:2" ht="15.6">
-      <c r="B396" s="17" t="s">
+    <row r="427" spans="2:2" ht="16.5">
+      <c r="B427" s="13" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="15.6">
-      <c r="B397" s="17" t="s">
+    <row r="428" spans="2:2" ht="16.5">
+      <c r="B428" s="13" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="398" spans="2:2" ht="15.6">
-      <c r="B398" s="17" t="s">
+    <row r="429" spans="2:2" ht="16.5">
+      <c r="B429" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="399" spans="2:2" ht="15.6">
-      <c r="B399" s="17" t="s">
+    <row r="430" spans="2:2" ht="16.5">
+      <c r="B430" s="13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="15.6">
-      <c r="B400" s="17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2" ht="15.6">
-      <c r="B401" s="17" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="402" spans="2:2" ht="15.6">
-      <c r="B402" s="17" t="s">
+    <row r="431" spans="2:2" ht="16.5">
+      <c r="B431" s="13" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="403" spans="2:2" ht="15.6">
-      <c r="B403" s="17" t="s">
+    <row r="432" spans="2:2" ht="16.5">
+      <c r="B432" s="13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="404" spans="2:2" ht="15.6">
-      <c r="B404" s="17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="405" spans="2:2" ht="15.6">
-      <c r="B405" s="17" t="s">
+    <row r="433" spans="2:2" ht="16.5">
+      <c r="B433" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="406" spans="2:2" ht="15.6">
-      <c r="B406" s="17" t="s">
+    <row r="434" spans="2:2" ht="16.5">
+      <c r="B434" s="13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="407" spans="2:2" ht="15.6">
-      <c r="B407" s="17" t="s">
+    <row r="435" spans="2:2" ht="16.5">
+      <c r="B435" s="13" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="408" spans="2:2" ht="15.6">
-      <c r="B408" s="17" t="s">
+    <row r="436" spans="2:2" ht="16.5">
+      <c r="B436" s="13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="15.6">
-      <c r="B409" s="17" t="s">
+    <row r="437" spans="2:2" ht="16.5">
+      <c r="B437" s="13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="410" spans="2:2" ht="15.6">
-      <c r="B410" s="17" t="s">
+    <row r="438" spans="2:2" ht="16.5">
+      <c r="B438" s="13" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="15.6">
-      <c r="B411" s="17" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" ht="15.6">
-      <c r="B412" s="17" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2" ht="15.6">
-      <c r="B413" s="17" t="s">
+    <row r="439" spans="2:2" ht="16.5">
+      <c r="B439" s="13" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="414" spans="2:2" ht="15.6">
-      <c r="B414" s="17" t="s">
+    <row r="440" spans="2:2" ht="16.5">
+      <c r="B440" s="13" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="415" spans="2:2" ht="20.399999999999999">
-      <c r="B415" s="83" t="s">
+    <row r="441" spans="2:2" ht="16.5">
+      <c r="B441" s="13" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="416" spans="2:2" ht="15.6">
-      <c r="B416" s="17" t="s">
+    <row r="483" spans="2:2" ht="16.5">
+      <c r="B483" s="13"/>
+    </row>
+    <row r="484" spans="2:2" ht="16.5">
+      <c r="B484" s="13"/>
+    </row>
+    <row r="489" spans="2:2" ht="16.5">
+      <c r="B489" s="13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="417" spans="2:2" ht="15.6">
-      <c r="B417" s="17" t="s">
+    <row r="490" spans="2:2" ht="16.5">
+      <c r="B490" s="13" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="418" spans="2:2" ht="15.6">
-      <c r="B418" s="17" t="s">
+    <row r="491" spans="2:2" ht="16.5">
+      <c r="B491" s="13" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="419" spans="2:2" ht="15.6">
-      <c r="B419" s="17" t="s">
+    <row r="492" spans="2:2" ht="16.5">
+      <c r="B492" s="13" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="420" spans="2:2" ht="15.6">
-      <c r="B420" s="17" t="s">
+    <row r="493" spans="2:2" ht="16.5">
+      <c r="B493" s="13" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="421" spans="2:2" ht="15.6">
-      <c r="B421" s="17" t="s">
+    <row r="494" spans="2:2" ht="16.5">
+      <c r="B494" s="13" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="422" spans="2:2" ht="15.6">
-      <c r="B422" s="17" t="s">
+    <row r="495" spans="2:2" ht="16.5">
+      <c r="B495" s="13" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="423" spans="2:2" ht="15.6">
-      <c r="B423" s="17" t="s">
+    <row r="496" spans="2:2" ht="16.5">
+      <c r="B496" s="13" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="424" spans="2:2" ht="15.6">
-      <c r="B424" s="17" t="s">
+    <row r="497" spans="2:2" ht="16.5">
+      <c r="B497" s="13" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="425" spans="2:2" ht="15.6">
-      <c r="B425" s="17" t="s">
+    <row r="498" spans="2:2" ht="16.5">
+      <c r="B498" s="13" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="426" spans="2:2" ht="15.6">
-      <c r="B426" s="17" t="s">
+    <row r="499" spans="2:2" ht="16.5">
+      <c r="B499" s="13"/>
+    </row>
+    <row r="500" spans="2:2" ht="16.5">
+      <c r="B500" s="13" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="15.6">
-      <c r="B427" s="17" t="s">
+    <row r="501" spans="2:2" ht="16.5">
+      <c r="B501" s="13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="428" spans="2:2" ht="15.6">
-      <c r="B428" s="17" t="s">
+    <row r="502" spans="2:2" ht="16.5">
+      <c r="B502" s="13" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="15.6">
-      <c r="B429" s="17" t="s">
+    <row r="503" spans="2:2" ht="16.5">
+      <c r="B503" s="13" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="15.6">
-      <c r="B430" s="17" t="s">
+    <row r="504" spans="2:2" ht="16.5">
+      <c r="B504" s="13" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="15.6">
-      <c r="B431" s="17" t="s">
+    <row r="505" spans="2:2" ht="16.5">
+      <c r="B505" s="13" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="432" spans="2:2" ht="15.6">
-      <c r="B432" s="17" t="s">
+    <row r="506" spans="2:2" ht="16.5">
+      <c r="B506" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="507" spans="2:2" ht="16.5">
+      <c r="B507" s="13" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="433" spans="2:2" ht="15.6">
-      <c r="B433" s="17" t="s">
+    <row r="508" spans="2:2" ht="16.5">
+      <c r="B508" s="13" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="434" spans="2:2" ht="15.6">
-      <c r="B434" s="17" t="s">
+    <row r="509" spans="2:2" ht="16.5">
+      <c r="B509" s="13" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="510" spans="2:2" ht="16.5">
+      <c r="B510" s="13" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="435" spans="2:2" ht="15.6">
-      <c r="B435" s="17" t="s">
+    <row r="511" spans="2:2" ht="16.5">
+      <c r="B511" s="13" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="15.6">
-      <c r="B436" s="17" t="s">
+    <row r="512" spans="2:2" ht="16.5">
+      <c r="B512" s="13" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="15.6">
-      <c r="B437" s="17" t="s">
+    <row r="513" spans="2:2" ht="16.5">
+      <c r="B513" s="13" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="438" spans="2:2" ht="15.6">
-      <c r="B438" s="17" t="s">
+    <row r="514" spans="2:2" ht="16.5">
+      <c r="B514" s="13" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="15.6">
-      <c r="B439" s="17" t="s">
+    <row r="515" spans="2:2" ht="16.5">
+      <c r="B515" s="13" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="15.6">
-      <c r="B440" s="17" t="s">
+    <row r="516" spans="2:2" ht="16.5">
+      <c r="B516" s="13" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="15.6">
-      <c r="B441" s="17" t="s">
+    <row r="517" spans="2:2" ht="16.5">
+      <c r="B517" s="13" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="483" spans="2:2" ht="15.6">
-      <c r="B483" s="17"/>
-    </row>
-    <row r="484" spans="2:2" ht="15.6">
-      <c r="B484" s="17"/>
-    </row>
-    <row r="489" spans="2:2" ht="15.6">
-      <c r="B489" s="17" t="s">
+    <row r="518" spans="2:2" ht="16.5">
+      <c r="B518" s="13" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="15.6">
-      <c r="B490" s="17" t="s">
+    <row r="519" spans="2:2" ht="16.5">
+      <c r="B519" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" ht="16.5">
+      <c r="B520" s="13" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="15.6">
-      <c r="B491" s="17" t="s">
+    <row r="521" spans="2:2" ht="16.5">
+      <c r="B521" s="13" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="15.6">
-      <c r="B492" s="17" t="s">
+    <row r="522" spans="2:2" ht="16.5">
+      <c r="B522" s="13" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="15.6">
-      <c r="B493" s="17" t="s">
+    <row r="523" spans="2:2" ht="16.5">
+      <c r="B523" s="13" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="15.6">
-      <c r="B494" s="17" t="s">
+    <row r="524" spans="2:2" ht="16.5">
+      <c r="B524" s="13" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="15.6">
-      <c r="B495" s="17" t="s">
+    <row r="525" spans="2:2" ht="16.5">
+      <c r="B525" s="13" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="496" spans="2:2" ht="15.6">
-      <c r="B496" s="17" t="s">
+    <row r="526" spans="2:2" ht="16.5">
+      <c r="B526" s="13" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="497" spans="2:2" ht="15.6">
-      <c r="B497" s="17" t="s">
+    <row r="527" spans="2:2" ht="16.5">
+      <c r="B527" s="13" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="498" spans="2:2" ht="15.6">
-      <c r="B498" s="17" t="s">
+    <row r="528" spans="2:2" ht="16.5">
+      <c r="B528" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" ht="16.5">
+      <c r="B529" s="13" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="499" spans="2:2" ht="15.6">
-      <c r="B499" s="17"/>
-    </row>
-    <row r="500" spans="2:2" ht="15.6">
-      <c r="B500" s="17" t="s">
+    <row r="530" spans="2:2" ht="16.5">
+      <c r="B530" s="13" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="501" spans="2:2" ht="15.6">
-      <c r="B501" s="17" t="s">
+    <row r="531" spans="2:2" ht="16.5">
+      <c r="B531" s="13" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="502" spans="2:2" ht="15.6">
-      <c r="B502" s="17" t="s">
+    <row r="532" spans="2:2" ht="16.5">
+      <c r="B532" s="13" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="503" spans="2:2" ht="15.6">
-      <c r="B503" s="17" t="s">
+    <row r="533" spans="2:2" ht="16.5">
+      <c r="B533" s="13" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="504" spans="2:2" ht="15.6">
-      <c r="B504" s="17" t="s">
+    <row r="534" spans="2:2" ht="16.5">
+      <c r="B534" s="13" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="505" spans="2:2" ht="15.6">
-      <c r="B505" s="17" t="s">
+    <row r="535" spans="2:2" ht="16.5">
+      <c r="B535" s="13" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="506" spans="2:2" ht="15.6">
-      <c r="B506" s="17" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="507" spans="2:2" ht="15.6">
-      <c r="B507" s="17" t="s">
+    <row r="536" spans="2:2" ht="16.5">
+      <c r="B536" s="13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="508" spans="2:2" ht="15.6">
-      <c r="B508" s="17" t="s">
+    <row r="537" spans="2:2" ht="16.5">
+      <c r="B537" s="13" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="509" spans="2:2" ht="15.6">
-      <c r="B509" s="17" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="510" spans="2:2" ht="15.6">
-      <c r="B510" s="17" t="s">
+    <row r="538" spans="2:2" ht="16.5">
+      <c r="B538" s="13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="539" spans="2:2" ht="16.5">
+      <c r="B539" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="540" spans="2:2" ht="16.5">
+      <c r="B540" s="13" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="511" spans="2:2" ht="15.6">
-      <c r="B511" s="17" t="s">
+    <row r="541" spans="2:2" ht="16.5">
+      <c r="B541" s="13" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="512" spans="2:2" ht="15.6">
-      <c r="B512" s="17" t="s">
+    <row r="542" spans="2:2" ht="16.5">
+      <c r="B542" s="13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="543" spans="2:2" ht="16.5">
+      <c r="B543" s="13" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="513" spans="2:2" ht="15.6">
-      <c r="B513" s="17" t="s">
+    <row r="544" spans="2:2" ht="16.5">
+      <c r="B544" s="13" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="514" spans="2:2" ht="15.6">
-      <c r="B514" s="17" t="s">
+    <row r="545" spans="2:2" ht="16.5">
+      <c r="B545" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" ht="16.5">
+      <c r="B546" s="13" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="515" spans="2:2" ht="15.6">
-      <c r="B515" s="17" t="s">
+    <row r="547" spans="2:2" ht="16.5">
+      <c r="B547" s="13" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="516" spans="2:2" ht="15.6">
-      <c r="B516" s="17" t="s">
+    <row r="548" spans="2:2" ht="16.5">
+      <c r="B548" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="517" spans="2:2" ht="15.6">
-      <c r="B517" s="17" t="s">
+    <row r="549" spans="2:2" ht="16.5">
+      <c r="B549" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" ht="16.5">
+      <c r="B550" s="13" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="518" spans="2:2" ht="15.6">
-      <c r="B518" s="17" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="519" spans="2:2" ht="15.6">
-      <c r="B519" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="520" spans="2:2" ht="15.6">
-      <c r="B520" s="17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="521" spans="2:2" ht="15.6">
-      <c r="B521" s="17" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="522" spans="2:2" ht="15.6">
-      <c r="B522" s="17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="523" spans="2:2" ht="15.6">
-      <c r="B523" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="524" spans="2:2" ht="15.6">
-      <c r="B524" s="17" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="525" spans="2:2" ht="15.6">
-      <c r="B525" s="17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="526" spans="2:2" ht="15.6">
-      <c r="B526" s="17" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="527" spans="2:2" ht="15.6">
-      <c r="B527" s="17" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="528" spans="2:2" ht="15.6">
-      <c r="B528" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="529" spans="2:2" ht="15.6">
-      <c r="B529" s="17" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="530" spans="2:2" ht="15.6">
-      <c r="B530" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="531" spans="2:2" ht="15.6">
-      <c r="B531" s="17" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="532" spans="2:2" ht="15.6">
-      <c r="B532" s="17" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="533" spans="2:2" ht="15.6">
-      <c r="B533" s="17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="534" spans="2:2" ht="15.6">
-      <c r="B534" s="17" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="535" spans="2:2" ht="15.6">
-      <c r="B535" s="17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="536" spans="2:2" ht="15.6">
-      <c r="B536" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="537" spans="2:2" ht="15.6">
-      <c r="B537" s="17" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="538" spans="2:2" ht="15.6">
-      <c r="B538" s="17" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="539" spans="2:2" ht="15.6">
-      <c r="B539" s="17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="540" spans="2:2" ht="15.6">
-      <c r="B540" s="17" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="541" spans="2:2" ht="15.6">
-      <c r="B541" s="17" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="542" spans="2:2" ht="15.6">
-      <c r="B542" s="17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="543" spans="2:2" ht="15.6">
-      <c r="B543" s="17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="544" spans="2:2" ht="15.6">
-      <c r="B544" s="17" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="545" spans="2:2" ht="15.6">
-      <c r="B545" s="17" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="546" spans="2:2" ht="15.6">
-      <c r="B546" s="17" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="547" spans="2:2" ht="15.6">
-      <c r="B547" s="17" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="548" spans="2:2" ht="15.6">
-      <c r="B548" s="17" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="549" spans="2:2" ht="15.6">
-      <c r="B549" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="550" spans="2:2" ht="15.6">
-      <c r="B550" s="17" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="551" spans="2:2" ht="15.6">
-      <c r="B551" s="17" t="s">
-        <v>483</v>
+    <row r="551" spans="2:2" ht="16.5">
+      <c r="B551" s="13" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -10389,10 +9799,6 @@
     <mergeCell ref="D36:G36"/>
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:O36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:O33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="H34:K34"/>
@@ -10413,6 +9819,10 @@
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:O30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:O33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10421,560 +9831,560 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A60" workbookViewId="0">
       <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="13.21875" customWidth="1"/>
-    <col min="19" max="19" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="18" max="18" width="13.25" customWidth="1"/>
+    <col min="19" max="19" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
-      <c r="A1" s="31" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
+    <row r="1" spans="1:2" ht="20.25">
+      <c r="A1" s="24" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>634</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>635</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="7" t="s">
-        <v>632</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" s="7" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="21">
-      <c r="A6" s="31" t="s">
-        <v>722</v>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.25">
+      <c r="A6" s="24" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>723</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>724</v>
+        <v>681</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>725</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>726</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>636</v>
+        <v>593</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="13" t="s">
-        <v>637</v>
+      <c r="B13" s="10" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>638</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="16" t="s">
-        <v>639</v>
+      <c r="B15" s="12" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>640</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="16" t="s">
-        <v>641</v>
+      <c r="B18" s="12" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>642</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="13" t="s">
-        <v>643</v>
+      <c r="B20" s="10" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>644</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="13" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="23.4">
-      <c r="B24" s="28" t="s">
-        <v>646</v>
+      <c r="B22" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="23.25">
+      <c r="B24" s="21" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="10"/>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="16" t="s">
-        <v>647</v>
+      <c r="B26" s="12" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="16" t="s">
-        <v>648</v>
+      <c r="B27" s="12" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="16" t="s">
-        <v>649</v>
+      <c r="B28" s="12" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="13"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="16" t="s">
-        <v>650</v>
+      <c r="B30" s="12" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="16" t="s">
-        <v>651</v>
+      <c r="B31" s="12" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="16" t="s">
-        <v>652</v>
+      <c r="B32" s="12" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="16" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="23.4">
-      <c r="B35" s="28" t="s">
-        <v>654</v>
+      <c r="B33" s="12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="23.25">
+      <c r="B35" s="21" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>727</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="23.4">
-      <c r="B39" s="28" t="s">
-        <v>655</v>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="23.25">
+      <c r="B39" s="21" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="29" t="s">
-        <v>656</v>
+      <c r="B41" s="22" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>657</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="29" t="s">
-        <v>658</v>
+      <c r="B43" s="22" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>659</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="29" t="s">
-        <v>660</v>
+      <c r="B45" s="22" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>661</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="29" t="s">
-        <v>662</v>
+      <c r="B47" s="22" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>663</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" t="s">
-        <v>731</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="2:20">
       <c r="C50" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" ht="23.4">
-      <c r="B51" s="28" t="s">
-        <v>664</v>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" ht="23.25">
+      <c r="B51" s="21" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="2:20" ht="18">
-      <c r="B53" s="49" t="s">
-        <v>665</v>
-      </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="45" t="s">
-        <v>666</v>
-      </c>
-      <c r="F53" s="45"/>
-      <c r="G53" s="45"/>
-      <c r="H53" s="45" t="s">
-        <v>667</v>
-      </c>
-      <c r="I53" s="45"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="45" t="s">
-        <v>668</v>
-      </c>
-      <c r="L53" s="45"/>
-      <c r="M53" s="45"/>
-      <c r="N53" s="45" t="s">
-        <v>669</v>
-      </c>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45" t="s">
-        <v>670</v>
-      </c>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
+      <c r="B53" s="66" t="s">
+        <v>622</v>
+      </c>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="62" t="s">
+        <v>623</v>
+      </c>
+      <c r="F53" s="62"/>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62" t="s">
+        <v>624</v>
+      </c>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62" t="s">
+        <v>625</v>
+      </c>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62" t="s">
+        <v>626</v>
+      </c>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62" t="s">
+        <v>627</v>
+      </c>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
     </row>
     <row r="54" spans="2:20" ht="33.75" customHeight="1">
-      <c r="B54" s="50" t="s">
-        <v>671</v>
-      </c>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="46" t="s">
-        <v>730</v>
-      </c>
-      <c r="F54" s="47"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="46" t="s">
-        <v>672</v>
-      </c>
-      <c r="I54" s="47"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="46" t="s">
-        <v>673</v>
-      </c>
-      <c r="L54" s="47"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="46" t="s">
-        <v>674</v>
-      </c>
-      <c r="O54" s="47"/>
-      <c r="P54" s="48"/>
-      <c r="Q54" s="46" t="s">
-        <v>675</v>
-      </c>
-      <c r="R54" s="47"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="32"/>
+      <c r="B54" s="67" t="s">
+        <v>628</v>
+      </c>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="63" t="s">
+        <v>687</v>
+      </c>
+      <c r="F54" s="64"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="63" t="s">
+        <v>629</v>
+      </c>
+      <c r="I54" s="64"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="63" t="s">
+        <v>630</v>
+      </c>
+      <c r="L54" s="64"/>
+      <c r="M54" s="65"/>
+      <c r="N54" s="63" t="s">
+        <v>631</v>
+      </c>
+      <c r="O54" s="64"/>
+      <c r="P54" s="65"/>
+      <c r="Q54" s="63" t="s">
+        <v>632</v>
+      </c>
+      <c r="R54" s="64"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="25"/>
     </row>
     <row r="55" spans="2:20" ht="35.25" customHeight="1">
-      <c r="B55" s="50" t="s">
-        <v>676</v>
-      </c>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="46" t="s">
-        <v>677</v>
-      </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="46" t="s">
-        <v>678</v>
-      </c>
-      <c r="I55" s="47"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="46" t="s">
-        <v>679</v>
-      </c>
-      <c r="L55" s="47"/>
-      <c r="M55" s="48"/>
-      <c r="N55" s="46" t="s">
-        <v>680</v>
-      </c>
-      <c r="O55" s="47"/>
-      <c r="P55" s="48"/>
-      <c r="Q55" s="46" t="s">
-        <v>681</v>
-      </c>
-      <c r="R55" s="47"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="32"/>
+      <c r="B55" s="67" t="s">
+        <v>633</v>
+      </c>
+      <c r="C55" s="67"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="63" t="s">
+        <v>634</v>
+      </c>
+      <c r="F55" s="64"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="63" t="s">
+        <v>635</v>
+      </c>
+      <c r="I55" s="64"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="63" t="s">
+        <v>636</v>
+      </c>
+      <c r="L55" s="64"/>
+      <c r="M55" s="65"/>
+      <c r="N55" s="63" t="s">
+        <v>637</v>
+      </c>
+      <c r="O55" s="64"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="63" t="s">
+        <v>638</v>
+      </c>
+      <c r="R55" s="64"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="25"/>
     </row>
     <row r="56" spans="2:20" ht="51.75" customHeight="1">
-      <c r="B56" s="50" t="s">
-        <v>660</v>
-      </c>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="46" t="s">
-        <v>729</v>
-      </c>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="46" t="s">
-        <v>682</v>
-      </c>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="46" t="s">
-        <v>683</v>
-      </c>
-      <c r="L56" s="47"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="46" t="s">
-        <v>684</v>
-      </c>
-      <c r="O56" s="47"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="46" t="s">
-        <v>685</v>
-      </c>
-      <c r="R56" s="47"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="32"/>
+      <c r="B56" s="67" t="s">
+        <v>617</v>
+      </c>
+      <c r="C56" s="67"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="63" t="s">
+        <v>686</v>
+      </c>
+      <c r="F56" s="64"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="63" t="s">
+        <v>639</v>
+      </c>
+      <c r="I56" s="64"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="63" t="s">
+        <v>640</v>
+      </c>
+      <c r="L56" s="64"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="63" t="s">
+        <v>641</v>
+      </c>
+      <c r="O56" s="64"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="63" t="s">
+        <v>642</v>
+      </c>
+      <c r="R56" s="64"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="25"/>
     </row>
     <row r="57" spans="2:20" ht="38.25" customHeight="1">
-      <c r="B57" s="50" t="s">
-        <v>662</v>
-      </c>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="46" t="s">
-        <v>686</v>
-      </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="46" t="s">
-        <v>687</v>
-      </c>
-      <c r="I57" s="47"/>
-      <c r="J57" s="48"/>
-      <c r="K57" s="46" t="s">
-        <v>688</v>
-      </c>
-      <c r="L57" s="47"/>
-      <c r="M57" s="48"/>
-      <c r="N57" s="46" t="s">
-        <v>689</v>
-      </c>
-      <c r="O57" s="47"/>
-      <c r="P57" s="48"/>
-      <c r="Q57" s="46" t="s">
-        <v>690</v>
-      </c>
-      <c r="R57" s="47"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="32"/>
-    </row>
-    <row r="59" spans="2:20" ht="23.4">
-      <c r="B59" s="28" t="s">
-        <v>691</v>
+      <c r="B57" s="67" t="s">
+        <v>619</v>
+      </c>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="63" t="s">
+        <v>643</v>
+      </c>
+      <c r="F57" s="64"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="63" t="s">
+        <v>644</v>
+      </c>
+      <c r="I57" s="64"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="63" t="s">
+        <v>645</v>
+      </c>
+      <c r="L57" s="64"/>
+      <c r="M57" s="65"/>
+      <c r="N57" s="63" t="s">
+        <v>646</v>
+      </c>
+      <c r="O57" s="64"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="63" t="s">
+        <v>647</v>
+      </c>
+      <c r="R57" s="64"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="25"/>
+    </row>
+    <row r="59" spans="2:20" ht="23.25">
+      <c r="B59" s="21" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="2:20">
       <c r="B61" t="s">
-        <v>692</v>
+        <v>649</v>
       </c>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="13"/>
+      <c r="B62" s="10"/>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="13" t="s">
-        <v>693</v>
+      <c r="B63" s="10" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="13" t="s">
-        <v>694</v>
+      <c r="B64" s="10" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="13" t="s">
-        <v>695</v>
+      <c r="B65" s="10" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="13" t="s">
-        <v>696</v>
+      <c r="B66" s="10" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="13" t="s">
-        <v>697</v>
+      <c r="B67" s="10" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="13" t="s">
-        <v>698</v>
+      <c r="B68" s="10" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="23.4">
-      <c r="B72" s="28" t="s">
-        <v>700</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="23.25">
+      <c r="B72" s="21" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="2:2">
       <c r="B74" t="s">
-        <v>701</v>
+        <v>658</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>702</v>
+        <v>659</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" t="s">
-        <v>703</v>
+        <v>660</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>704</v>
+        <v>661</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" t="s">
-        <v>705</v>
+        <v>662</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="23.4">
-      <c r="B81" s="28" t="s">
-        <v>707</v>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="23.25">
+      <c r="B81" s="21" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="30" t="s">
-        <v>708</v>
+      <c r="B83" s="23" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>709</v>
+        <v>666</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>710</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>711</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" ht="23.4">
-      <c r="B89" s="28" t="s">
-        <v>713</v>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="23.25">
+      <c r="B89" s="21" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>714</v>
+        <v>671</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="13"/>
+      <c r="B92" s="10"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="13" t="s">
-        <v>715</v>
+      <c r="B93" s="10" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="13" t="s">
-        <v>716</v>
+      <c r="B94" s="10" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="13" t="s">
-        <v>717</v>
+      <c r="B95" s="10" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="13" t="s">
-        <v>718</v>
+      <c r="B96" s="10" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="13" t="s">
-        <v>719</v>
+      <c r="B97" s="10" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>720</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -11012,30 +10422,30 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" display="https://baike.baidu.com/item/SQL" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B18" r:id="rId2" display="https://baike.baidu.com/item/SQL" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B26" r:id="rId3" location="1" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 1" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="B27" r:id="rId4" location="2" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 2" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B28" r:id="rId5" location="3" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 3" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B30" r:id="rId6" location="4" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 4" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B31" r:id="rId7" location="5" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 5" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="B32" r:id="rId8" location="6" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 6" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B33" r:id="rId9" location="7" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 7" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="B83" r:id="rId10" display="https://baike.baidu.com/item/%E8%AE%A1%E7%AE%97%E6%9C%BA%E4%BD%93%E7%B3%BB%E7%BB%93%E6%9E%84" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="B15" r:id="rId1" display="https://baike.baidu.com/item/SQL"/>
+    <hyperlink ref="B18" r:id="rId2" display="https://baike.baidu.com/item/SQL"/>
+    <hyperlink ref="B26" r:id="rId3" location="1" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 1"/>
+    <hyperlink ref="B27" r:id="rId4" location="2" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 2"/>
+    <hyperlink ref="B28" r:id="rId5" location="3" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 3"/>
+    <hyperlink ref="B30" r:id="rId6" location="4" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 4"/>
+    <hyperlink ref="B31" r:id="rId7" location="5" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 5"/>
+    <hyperlink ref="B32" r:id="rId8" location="6" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 6"/>
+    <hyperlink ref="B33" r:id="rId9" location="7" display="https://baike.baidu.com/item/NoSQL/8828247?fr=aladdin - 7"/>
+    <hyperlink ref="B83" r:id="rId10" display="https://baike.baidu.com/item/%E8%AE%A1%E7%AE%97%E6%9C%BA%E4%BD%93%E7%B3%BB%E7%BB%93%E6%9E%84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11043,75 +10453,75 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55" t="s">
-        <v>589</v>
-      </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72" t="s">
+        <v>563</v>
+      </c>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>586</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>598</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="A2" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>125</v>
@@ -11120,7 +10530,7 @@
         <v>124</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9" t="s">
@@ -11140,20 +10550,20 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="54" t="s">
-        <v>733</v>
+      <c r="A4" s="71" t="s">
+        <v>690</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>601</v>
+        <v>156</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>574</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -11162,18 +10572,18 @@
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="54"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>602</v>
+        <v>155</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>575</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -11182,18 +10592,18 @@
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="54"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>584</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>609</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>603</v>
+        <v>564</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>576</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -11202,18 +10612,18 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="54"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>607</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>605</v>
+      <c r="D7" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>578</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -11222,18 +10632,18 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="54"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>611</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>604</v>
+        <v>154</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>577</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -11242,18 +10652,18 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="54"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="8" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>577</v>
+        <v>551</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>601</v>
+        <v>570</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>574</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -11262,18 +10672,18 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="54"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>602</v>
+        <v>555</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>575</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -11282,18 +10692,18 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="54"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="8" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>603</v>
+        <v>583</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>576</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -11302,18 +10712,18 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="54"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="8" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>579</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>606</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -11322,18 +10732,18 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="54"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="8" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>604</v>
+        <v>585</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>577</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
@@ -11342,18 +10752,18 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="57" t="s">
-        <v>168</v>
+      <c r="A14" s="74" t="s">
+        <v>144</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
@@ -11362,12 +10772,12 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="58"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="8" t="s">
-        <v>570</v>
+        <v>544</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -11378,16 +10788,16 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="58"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="8" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="25" t="s">
-        <v>604</v>
+      <c r="E16" s="20" t="s">
+        <v>577</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
@@ -11396,9 +10806,9 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="58"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="8" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>129</v>
@@ -11412,12 +10822,12 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="59"/>
+      <c r="A18" s="76"/>
       <c r="B18" s="8" t="s">
-        <v>574</v>
+        <v>548</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -11428,14 +10838,14 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="51" t="s">
-        <v>169</v>
+      <c r="A19" s="68" t="s">
+        <v>145</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -11446,12 +10856,12 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="52"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="8" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -11462,12 +10872,12 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="52"/>
+      <c r="A21" s="69"/>
       <c r="B21" s="8" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -11478,12 +10888,12 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="52"/>
+      <c r="A22" s="69"/>
       <c r="B22" s="8" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -11494,12 +10904,12 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="52"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="8" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -11510,12 +10920,12 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="53"/>
+      <c r="A24" s="70"/>
       <c r="B24" s="8" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -11526,12 +10936,12 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="51" t="s">
-        <v>182</v>
+      <c r="A25" s="68" t="s">
+        <v>158</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
@@ -11542,10 +10952,10 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="52"/>
+      <c r="A26" s="69"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
@@ -11556,7 +10966,7 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="53"/>
+      <c r="A27" s="70"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -11568,14 +10978,14 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="51" t="s">
-        <v>188</v>
+      <c r="A28" s="68" t="s">
+        <v>164</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -11586,12 +10996,12 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="52"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="8" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
@@ -11602,12 +11012,12 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="52"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="8" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
@@ -11618,12 +11028,12 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="53"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="8" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -11634,14 +11044,14 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="54" t="s">
-        <v>187</v>
+      <c r="A32" s="71" t="s">
+        <v>163</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
@@ -11652,12 +11062,12 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="54"/>
+      <c r="A33" s="71"/>
       <c r="B33" s="8" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -11668,7 +11078,7 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="54"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -11680,7 +11090,7 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="54"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -11692,7 +11102,7 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="54"/>
+      <c r="A36" s="71"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -11721,256 +11131,41 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A5:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="5" spans="1:12">
-      <c r="A5" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="9">
-        <v>3</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A2:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="1:3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="B5" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C5" xr:uid="{00000000-0002-0000-0600-000000000000}">
-      <formula1>"MSSql,Oracle,PostgreSql,MySql,SqLite"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/40_数据库/学习笔记_数据库.xlsx
+++ b/40_数据库/学习笔记_数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="850" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="850" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="11" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="界面" sheetId="4" r:id="rId9"/>
     <sheet name="数据库设计" sheetId="7" r:id="rId10"/>
     <sheet name="参考" sheetId="10" r:id="rId11"/>
+    <sheet name="国产" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="NoSQL数据库的四大分类" localSheetId="4">NoSQL!$B$38</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="777">
   <si>
     <t>字段映射</t>
   </si>
@@ -4123,12 +4124,78 @@
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>国产数据库前10名排行榜，达梦位居第6(2024年1月份):</t>
+  </si>
+  <si>
+    <t>1.OceanBase数据库：</t>
+  </si>
+  <si>
+    <t>OceanBase在2024年1月的数据库排行榜中以802.24分位列第一，表现出强大的市场影响力和技术实力。它被列为分布式关系型数据库的领导者，并在金融级分布式数据库市场中占据领导地位。</t>
+  </si>
+  <si>
+    <t>2.PolarDB数据库：</t>
+  </si>
+  <si>
+    <t>PolarDB是阿里云的产品，它在2024年1月的排行榜中排名第二，得分777.41。阿里云通过开源理念与云计算的结合，为用户提供灵活可靠的数据库服务。</t>
+  </si>
+  <si>
+    <t>3.openGauss数据库：</t>
+  </si>
+  <si>
+    <t>openGauss在2024年1月的排行榜中以600.24分位列第三。</t>
+  </si>
+  <si>
+    <t>自2020年开源以来，openGauss已成为国内最活跃的开源技术根社区之一。</t>
+  </si>
+  <si>
+    <t>4.TiDB数据库：</t>
+  </si>
+  <si>
+    <t>TiDB在2024年1月的排行榜中以584.11分位列第四。TiDB是一个NewSQL数据库，支持水平扩展和强一致性的SQL数据库服务。</t>
+  </si>
+  <si>
+    <t>5.人大金仓：</t>
+  </si>
+  <si>
+    <t>人大金仓在2024年1月的排行榜中位列第五，其自主研发的金仓数据库在能源、金融、交通、电信等多个重点行业和关键领域得到验证。</t>
+  </si>
+  <si>
+    <t>6.达梦数据库：</t>
+  </si>
+  <si>
+    <t>达梦数据库在2024年1月的排行榜中排名第六，支持中信建投证券完成全国OTC证券场外交易市场业务系统升级。</t>
+  </si>
+  <si>
+    <t>7.GBASE南大通用数据库：</t>
+  </si>
+  <si>
+    <t>GBASE南大通用在2024年1月的排行榜中排名第七，其产品在国内外市场取得显著成果。</t>
+  </si>
+  <si>
+    <t>8.GaussDB数据库：</t>
+  </si>
+  <si>
+    <t>GaussDB在2024年1月的排行榜中排名第八，华为云GaussDB数据库以15.47%的市场份额，位列本地部署模式国产厂商第一。</t>
+  </si>
+  <si>
+    <t>9.TDSQL数据库：</t>
+  </si>
+  <si>
+    <t>TDSQL在2024年1月的排行榜中排名第九，作为腾讯自主研发的金融级分布式数据库产品，被多个垂直行业客户采用。</t>
+  </si>
+  <si>
+    <t>10.GoldenDB数据库：</t>
+  </si>
+  <si>
+    <t>GoldenDB在2024年1月的排行榜中排名第十，金篆信科GoldenDB在金融领域市场份额排名第一。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4455,6 +4522,19 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4642,7 +4722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4756,17 +4836,14 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4775,15 +4852,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4795,8 +4863,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4808,10 +4885,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4840,6 +4920,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4906,7 +4988,7 @@
         <xdr:cNvPr id="17" name="Group 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC6478B-DFBD-4D9D-BC5E-A1ED62C2D8D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5CC6478B-DFBD-4D9D-BC5E-A1ED62C2D8D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4930,7 +5012,7 @@
           <xdr:cNvPr id="14" name="Group 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A082CC7E-870E-4CF2-A1EE-84E5313BE5B7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A082CC7E-870E-4CF2-A1EE-84E5313BE5B7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -4954,7 +5036,7 @@
             <xdr:cNvPr id="2" name="Picture 1" descr="这里写图片描述">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A117436-3DC4-427D-A848-97C03C882977}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A117436-3DC4-427D-A848-97C03C882977}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5000,7 +5082,7 @@
             <xdr:cNvPr id="3" name="Picture 2" descr="这里写图片描述">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A1413D-7488-472B-AEBB-CACBEC561C8C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{89A1413D-7488-472B-AEBB-CACBEC561C8C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5047,7 +5129,7 @@
           <xdr:cNvPr id="4" name="Picture 3" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B5B9C1E-75EE-4A6D-B8A2-284DB73162FA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8B5B9C1E-75EE-4A6D-B8A2-284DB73162FA}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5109,7 +5191,7 @@
         <xdr:cNvPr id="15" name="Group 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{729F5B42-44B5-45EF-A995-9FC5092B3210}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{729F5B42-44B5-45EF-A995-9FC5092B3210}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5133,7 +5215,7 @@
           <xdr:cNvPr id="5" name="Picture 4" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954FCA6F-7D14-4B90-88E2-8B9821B78AD3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954FCA6F-7D14-4B90-88E2-8B9821B78AD3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5179,7 +5261,7 @@
           <xdr:cNvPr id="6" name="Picture 5" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579ADA8A-BACB-4E5A-A0AC-C0E965BE5690}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{579ADA8A-BACB-4E5A-A0AC-C0E965BE5690}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5241,7 +5323,7 @@
         <xdr:cNvPr id="7" name="Picture 6" descr="这里写图片描述">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0C9653-464D-4F92-927F-BB58508FD188}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D0C9653-464D-4F92-927F-BB58508FD188}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5307,7 +5389,7 @@
         <xdr:cNvPr id="13" name="Group 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF31D928-B360-4352-AD49-1CBDF49A0E34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DF31D928-B360-4352-AD49-1CBDF49A0E34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5331,7 +5413,7 @@
           <xdr:cNvPr id="8" name="Picture 7" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D516FCBD-8BF4-46F7-9534-409BA559F323}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D516FCBD-8BF4-46F7-9534-409BA559F323}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5377,7 +5459,7 @@
           <xdr:cNvPr id="9" name="Picture 8" descr="这里写图片描述">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25563059-0183-45EE-8F27-48B72C47EF91}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{25563059-0183-45EE-8F27-48B72C47EF91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5439,7 +5521,7 @@
         <xdr:cNvPr id="10" name="Group 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C0A588-1381-47EA-ADC6-7E3D010B9651}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B5C0A588-1381-47EA-ADC6-7E3D010B9651}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5463,7 +5545,7 @@
           <xdr:cNvPr id="11" name="Picture 10" descr="http://hi.csdn.net/attachment/201009/20/0_1284950237MmGR.gif">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DD604A1-AA8F-42DD-B82D-6BAFBA0377A3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DD604A1-AA8F-42DD-B82D-6BAFBA0377A3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5509,7 +5591,7 @@
           <xdr:cNvPr id="12" name="Picture 11" descr="http://hi.csdn.net/attachment/201009/20/0_1284950252qdzk.gif">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9031DA3-BAFC-4A05-901E-297F29CD1239}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9031DA3-BAFC-4A05-901E-297F29CD1239}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -5571,7 +5653,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://static.oschina.net/uploads/space/2016/1207/073031_6fF2_2903254.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E2A812-A2FB-432A-BBC6-21BD782A80C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{19E2A812-A2FB-432A-BBC6-21BD782A80C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5911,7 +5993,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5981,7 +6063,135 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25">
+      <c r="A1" s="78" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5">
+      <c r="B2" s="77" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5">
+      <c r="B4" s="77" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5">
+      <c r="B6" s="77" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5">
+      <c r="B8" s="77" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5">
+      <c r="B10" s="77" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5">
+      <c r="B12" s="77" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5">
+      <c r="B13" s="77" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5">
+      <c r="B15" s="77" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16.5">
+      <c r="B17" s="77" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="16.5">
+      <c r="B19" s="77" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16.5">
+      <c r="B21" s="77" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="16.5">
+      <c r="B23" s="77" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="16.5">
+      <c r="B25" s="77" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="16.5">
+      <c r="B27" s="77" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="16.5">
+      <c r="B29" s="77" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="16.5">
+      <c r="B31" s="77" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="16.5">
+      <c r="B33" s="77" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="16.5">
+      <c r="B35" s="77" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="16.5">
+      <c r="B37" s="77" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="16.5">
+      <c r="B39" s="77" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="16.5">
+      <c r="B40" s="77"/>
+    </row>
+    <row r="41" spans="2:2" ht="16.5">
+      <c r="B41" s="77" t="s">
+        <v>776</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5989,7 +6199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -6425,490 +6635,490 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="60" t="s">
         <v>480</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="61" t="s">
         <v>489</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61" t="s">
         <v>490</v>
       </c>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50" t="s">
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61" t="s">
         <v>481</v>
       </c>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" s="51" t="s">
+      <c r="B30" s="58" t="s">
         <v>482</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="59" t="s">
         <v>532</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52" t="s">
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59" t="s">
         <v>533</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="51" t="s">
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="M30" s="51"/>
-      <c r="N30" s="51"/>
-      <c r="O30" s="51"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="58" t="s">
         <v>483</v>
       </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="52" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="59" t="s">
         <v>534</v>
       </c>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52" t="s">
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="51" t="s">
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="M31" s="51"/>
-      <c r="N31" s="51" t="s">
+      <c r="M31" s="58"/>
+      <c r="N31" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="O31" s="51" t="s">
+      <c r="O31" s="58" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="B32" s="51" t="s">
+      <c r="B32" s="58" t="s">
         <v>484</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="59" t="s">
         <v>494</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="52" t="s">
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51" t="s">
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="58"/>
+      <c r="M32" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="N32" s="51" t="s">
+      <c r="N32" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="O32" s="51" t="s">
+      <c r="O32" s="58" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="59" t="s">
         <v>497</v>
       </c>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52" t="s">
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="58"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="58" t="s">
         <v>485</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52" t="s">
+      <c r="C34" s="58"/>
+      <c r="D34" s="59" t="s">
         <v>498</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52" t="s">
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52" t="s">
+      <c r="I34" s="59"/>
+      <c r="J34" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="L34" s="51" t="s">
+      <c r="L34" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="M34" s="51"/>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="59" t="s">
         <v>502</v>
       </c>
-      <c r="E35" s="52"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="52"/>
-      <c r="H35" s="52" t="s">
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="52" t="s">
+      <c r="I35" s="59"/>
+      <c r="J35" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="K35" s="52"/>
-      <c r="L35" s="51" t="s">
+      <c r="K35" s="59"/>
+      <c r="L35" s="58" t="s">
         <v>486</v>
       </c>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="58"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="59" t="s">
         <v>505</v>
       </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52" t="s">
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59" t="s">
         <v>495</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52" t="s">
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="L36" s="51" t="s">
+      <c r="L36" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="58"/>
+      <c r="O36" s="58"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="59" t="s">
         <v>536</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52" t="s">
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59" t="s">
         <v>488</v>
       </c>
-      <c r="I37" s="52"/>
-      <c r="J37" s="52" t="s">
+      <c r="I37" s="59"/>
+      <c r="J37" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="K37" s="52"/>
-      <c r="L37" s="51" t="s">
+      <c r="K37" s="59"/>
+      <c r="L37" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="M37" s="51"/>
-      <c r="N37" s="51"/>
-      <c r="O37" s="51"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52" t="s">
+      <c r="C38" s="58"/>
+      <c r="D38" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52" t="s">
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59" t="s">
         <v>537</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
-      <c r="N38" s="51"/>
-      <c r="O38" s="51"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="58"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="58"/>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52" t="s">
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="58"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="58"/>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52" t="s">
+      <c r="C40" s="58"/>
+      <c r="D40" s="59" t="s">
         <v>511</v>
       </c>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52" t="s">
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59" t="s">
         <v>512</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="51" t="s">
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="52" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="59" t="s">
         <v>514</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="52" t="s">
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59" t="s">
         <v>512</v>
       </c>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="51" t="s">
+      <c r="I41" s="59"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="52" t="s">
+      <c r="C42" s="58"/>
+      <c r="D42" s="59" t="s">
         <v>516</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52">
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59">
         <v>10</v>
       </c>
-      <c r="I42" s="52"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="51" t="s">
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="M42" s="51" t="s">
+      <c r="M42" s="58" t="s">
         <v>491</v>
       </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
     </row>
     <row r="43" spans="2:15">
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="59" t="s">
         <v>519</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52" t="s">
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52" t="s">
+      <c r="I43" s="59"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
+      <c r="L43" s="58"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="58"/>
     </row>
     <row r="44" spans="2:15">
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="58" t="s">
         <v>546</v>
       </c>
-      <c r="C44" s="51"/>
-      <c r="D44" s="52" t="s">
+      <c r="C44" s="58"/>
+      <c r="D44" s="59" t="s">
         <v>520</v>
       </c>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52" t="s">
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="59" t="s">
         <v>549</v>
       </c>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="58" t="s">
         <v>521</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="52" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="59" t="s">
         <v>522</v>
       </c>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52" t="s">
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52" t="s">
+      <c r="I45" s="59"/>
+      <c r="J45" s="59" t="s">
         <v>491</v>
       </c>
-      <c r="K45" s="52"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="51" t="s">
+      <c r="B46" s="58" t="s">
         <v>529</v>
       </c>
-      <c r="C46" s="51"/>
-      <c r="D46" s="52" t="s">
+      <c r="C46" s="58"/>
+      <c r="D46" s="59" t="s">
         <v>530</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52" t="s">
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59" t="s">
         <v>531</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
-      <c r="N46" s="51"/>
-      <c r="O46" s="51"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
     </row>
     <row r="47" spans="2:15">
-      <c r="B47" s="51" t="s">
+      <c r="B47" s="58" t="s">
         <v>524</v>
       </c>
-      <c r="C47" s="51"/>
-      <c r="D47" s="52" t="s">
+      <c r="C47" s="58"/>
+      <c r="D47" s="59" t="s">
         <v>525</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52" t="s">
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="59" t="s">
         <v>275</v>
       </c>
-      <c r="I47" s="52"/>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
-      <c r="N47" s="51"/>
-      <c r="O47" s="51"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="58"/>
     </row>
     <row r="48" spans="2:15">
-      <c r="B48" s="51" t="s">
+      <c r="B48" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="C48" s="51"/>
-      <c r="D48" s="52" t="s">
+      <c r="C48" s="58"/>
+      <c r="D48" s="59" t="s">
         <v>527</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="52"/>
-      <c r="H48" s="52" t="s">
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59" t="s">
         <v>528</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="51"/>
-      <c r="M48" s="51"/>
-      <c r="N48" s="51"/>
-      <c r="O48" s="51"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="58"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
     </row>
     <row r="50" spans="1:15" ht="20.25">
       <c r="A50" s="40" t="s">
@@ -7762,164 +7972,164 @@
       </c>
     </row>
     <row r="72" spans="2:15">
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="53" t="s">
+      <c r="E72" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="F72" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="G72" s="53" t="s">
+      <c r="G72" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="H72" s="56" t="s">
+      <c r="H72" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="I72" s="53" t="s">
+      <c r="I72" s="52" t="s">
         <v>101</v>
       </c>
       <c r="J72" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="K72" s="53" t="s">
+      <c r="K72" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="L72" s="56" t="s">
+      <c r="L72" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="M72" s="53" t="s">
+      <c r="M72" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="N72" s="56" t="s">
+      <c r="N72" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="O72" s="53" t="s">
+      <c r="O72" s="52" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="73" spans="2:15">
-      <c r="B73" s="60"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="57"/>
-      <c r="I73" s="54"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="53"/>
+      <c r="G73" s="53"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="53"/>
       <c r="J73" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="K73" s="54"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="54"/>
+      <c r="K73" s="53"/>
+      <c r="L73" s="50"/>
+      <c r="M73" s="53"/>
+      <c r="N73" s="50"/>
+      <c r="O73" s="53"/>
     </row>
     <row r="74" spans="2:15" ht="15" thickBot="1">
-      <c r="B74" s="61"/>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="55"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="51"/>
+      <c r="I74" s="54"/>
       <c r="J74" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="K74" s="55"/>
-      <c r="L74" s="58"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="55"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="54"/>
     </row>
     <row r="75" spans="2:15">
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="53" t="s">
+      <c r="C75" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D75" s="53" t="s">
+      <c r="D75" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="E75" s="53" t="s">
+      <c r="E75" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="53" t="s">
+      <c r="F75" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="G75" s="53" t="s">
+      <c r="G75" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="H75" s="56" t="s">
+      <c r="H75" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="I75" s="53" t="s">
+      <c r="I75" s="52" t="s">
         <v>114</v>
       </c>
       <c r="J75" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="K75" s="53" t="s">
+      <c r="K75" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="L75" s="56" t="s">
+      <c r="L75" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="M75" s="53" t="s">
+      <c r="M75" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="N75" s="56" t="s">
+      <c r="N75" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="O75" s="53" t="s">
+      <c r="O75" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:15">
-      <c r="B76" s="60"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="54"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+      <c r="G76" s="53"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="53"/>
       <c r="J76" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="K76" s="54"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="54"/>
+      <c r="K76" s="53"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="53"/>
+      <c r="N76" s="50"/>
+      <c r="O76" s="53"/>
     </row>
     <row r="77" spans="2:15" ht="15" thickBot="1">
-      <c r="B77" s="61"/>
-      <c r="C77" s="55"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="55"/>
-      <c r="H77" s="58"/>
-      <c r="I77" s="55"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="54"/>
+      <c r="G77" s="54"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="54"/>
       <c r="J77" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="K77" s="55"/>
-      <c r="L77" s="58"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="55"/>
+      <c r="K77" s="54"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="54"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="54"/>
     </row>
     <row r="79" spans="2:15">
       <c r="B79" s="7" t="s">
@@ -9717,6 +9927,88 @@
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="F72:F74"/>
+    <mergeCell ref="G72:G74"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:O48"/>
     <mergeCell ref="L75:L77"/>
     <mergeCell ref="M75:M77"/>
     <mergeCell ref="N75:N77"/>
@@ -9741,88 +10033,6 @@
     <mergeCell ref="C72:C74"/>
     <mergeCell ref="D72:D74"/>
     <mergeCell ref="E72:E74"/>
-    <mergeCell ref="F72:F74"/>
-    <mergeCell ref="G72:G74"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="L47:O47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="L48:O48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="H45:K45"/>
-    <mergeCell ref="L45:O45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:O46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="L43:O43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="L42:O42"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="H37:K37"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="H38:K38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:O33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10068,167 +10278,167 @@
       </c>
     </row>
     <row r="53" spans="2:20" ht="18">
-      <c r="B53" s="66" t="s">
+      <c r="B53" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="62" t="s">
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="65" t="s">
         <v>623</v>
       </c>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62" t="s">
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65" t="s">
         <v>624</v>
       </c>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62" t="s">
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65" t="s">
         <v>625</v>
       </c>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62" t="s">
+      <c r="L53" s="65"/>
+      <c r="M53" s="65"/>
+      <c r="N53" s="65" t="s">
         <v>626</v>
       </c>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62" t="s">
+      <c r="O53" s="65"/>
+      <c r="P53" s="65"/>
+      <c r="Q53" s="65" t="s">
         <v>627</v>
       </c>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
     </row>
     <row r="54" spans="2:20" ht="33.75" customHeight="1">
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="66" t="s">
         <v>628</v>
       </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="63" t="s">
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="62" t="s">
         <v>687</v>
       </c>
-      <c r="F54" s="64"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="63" t="s">
+      <c r="F54" s="63"/>
+      <c r="G54" s="64"/>
+      <c r="H54" s="62" t="s">
         <v>629</v>
       </c>
-      <c r="I54" s="64"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="63" t="s">
+      <c r="I54" s="63"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="62" t="s">
         <v>630</v>
       </c>
-      <c r="L54" s="64"/>
-      <c r="M54" s="65"/>
-      <c r="N54" s="63" t="s">
+      <c r="L54" s="63"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="62" t="s">
         <v>631</v>
       </c>
-      <c r="O54" s="64"/>
-      <c r="P54" s="65"/>
-      <c r="Q54" s="63" t="s">
+      <c r="O54" s="63"/>
+      <c r="P54" s="64"/>
+      <c r="Q54" s="62" t="s">
         <v>632</v>
       </c>
-      <c r="R54" s="64"/>
-      <c r="S54" s="65"/>
+      <c r="R54" s="63"/>
+      <c r="S54" s="64"/>
       <c r="T54" s="25"/>
     </row>
     <row r="55" spans="2:20" ht="35.25" customHeight="1">
-      <c r="B55" s="67" t="s">
+      <c r="B55" s="66" t="s">
         <v>633</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="63" t="s">
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="62" t="s">
         <v>634</v>
       </c>
-      <c r="F55" s="64"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="63" t="s">
+      <c r="F55" s="63"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="62" t="s">
         <v>635</v>
       </c>
-      <c r="I55" s="64"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="63" t="s">
+      <c r="I55" s="63"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="62" t="s">
         <v>636</v>
       </c>
-      <c r="L55" s="64"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="63" t="s">
+      <c r="L55" s="63"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="62" t="s">
         <v>637</v>
       </c>
-      <c r="O55" s="64"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="63" t="s">
+      <c r="O55" s="63"/>
+      <c r="P55" s="64"/>
+      <c r="Q55" s="62" t="s">
         <v>638</v>
       </c>
-      <c r="R55" s="64"/>
-      <c r="S55" s="65"/>
+      <c r="R55" s="63"/>
+      <c r="S55" s="64"/>
       <c r="T55" s="25"/>
     </row>
     <row r="56" spans="2:20" ht="51.75" customHeight="1">
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="66" t="s">
         <v>617</v>
       </c>
-      <c r="C56" s="67"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="63" t="s">
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="62" t="s">
         <v>686</v>
       </c>
-      <c r="F56" s="64"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="63" t="s">
+      <c r="F56" s="63"/>
+      <c r="G56" s="64"/>
+      <c r="H56" s="62" t="s">
         <v>639</v>
       </c>
-      <c r="I56" s="64"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="63" t="s">
+      <c r="I56" s="63"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="62" t="s">
         <v>640</v>
       </c>
-      <c r="L56" s="64"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="63" t="s">
+      <c r="L56" s="63"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="62" t="s">
         <v>641</v>
       </c>
-      <c r="O56" s="64"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="63" t="s">
+      <c r="O56" s="63"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="62" t="s">
         <v>642</v>
       </c>
-      <c r="R56" s="64"/>
-      <c r="S56" s="65"/>
+      <c r="R56" s="63"/>
+      <c r="S56" s="64"/>
       <c r="T56" s="25"/>
     </row>
     <row r="57" spans="2:20" ht="38.25" customHeight="1">
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="66" t="s">
         <v>619</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="63" t="s">
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="62" t="s">
         <v>643</v>
       </c>
-      <c r="F57" s="64"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="63" t="s">
+      <c r="F57" s="63"/>
+      <c r="G57" s="64"/>
+      <c r="H57" s="62" t="s">
         <v>644</v>
       </c>
-      <c r="I57" s="64"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="63" t="s">
+      <c r="I57" s="63"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="62" t="s">
         <v>645</v>
       </c>
-      <c r="L57" s="64"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="63" t="s">
+      <c r="L57" s="63"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="62" t="s">
         <v>646</v>
       </c>
-      <c r="O57" s="64"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="63" t="s">
+      <c r="O57" s="63"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="62" t="s">
         <v>647</v>
       </c>
-      <c r="R57" s="64"/>
-      <c r="S57" s="65"/>
+      <c r="R57" s="63"/>
+      <c r="S57" s="64"/>
       <c r="T57" s="25"/>
     </row>
     <row r="59" spans="2:20" ht="23.25">
@@ -10389,6 +10599,27 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:P55"/>
+    <mergeCell ref="Q55:S55"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:P54"/>
+    <mergeCell ref="Q54:S54"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
     <mergeCell ref="Q56:S56"/>
     <mergeCell ref="E57:G57"/>
     <mergeCell ref="H57:J57"/>
@@ -10398,27 +10629,6 @@
     <mergeCell ref="H56:J56"/>
     <mergeCell ref="K56:M56"/>
     <mergeCell ref="N56:P56"/>
-    <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:P54"/>
-    <mergeCell ref="Q54:S54"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:P55"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
